--- a/stake pool.xlsx
+++ b/stake pool.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1550"/>
+  <dimension ref="A1:C1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12748,7 +12748,7 @@
         <v>4553607.26152106</v>
       </c>
       <c r="C1126" t="n">
-        <v>9433909.316633729</v>
+        <v>9433903.738276679</v>
       </c>
     </row>
     <row r="1127">
@@ -12759,7 +12759,7 @@
         <v>4558706.95573487</v>
       </c>
       <c r="C1127" t="n">
-        <v>9439345.98343781</v>
+        <v>9439307.306828851</v>
       </c>
     </row>
     <row r="1128">
@@ -12770,7 +12770,7 @@
         <v>4560875.74005164</v>
       </c>
       <c r="C1128" t="n">
-        <v>9444160.10559242</v>
+        <v>9444097.25610283</v>
       </c>
     </row>
     <row r="1129">
@@ -12781,7 +12781,7 @@
         <v>4553801.07367853</v>
       </c>
       <c r="C1129" t="n">
-        <v>9448833.57214391</v>
+        <v>9448750.839401441</v>
       </c>
     </row>
     <row r="1130">
@@ -12792,7 +12792,7 @@
         <v>4577184.04289984</v>
       </c>
       <c r="C1130" t="n">
-        <v>9454829.84573913</v>
+        <v>9454730.54361926</v>
       </c>
     </row>
     <row r="1131">
@@ -12803,7 +12803,7 @@
         <v>4553179.52946092</v>
       </c>
       <c r="C1131" t="n">
-        <v>9459879.0873609</v>
+        <v>9459745.54186107</v>
       </c>
     </row>
     <row r="1132">
@@ -12814,7 +12814,7 @@
         <v>4538189.23425083</v>
       </c>
       <c r="C1132" t="n">
-        <v>9465759.743522361</v>
+        <v>9465618.46564641</v>
       </c>
     </row>
     <row r="1133">
@@ -12825,7 +12825,7 @@
         <v>4509200.94500908</v>
       </c>
       <c r="C1133" t="n">
-        <v>9470547.188980451</v>
+        <v>9470390.44635226</v>
       </c>
     </row>
     <row r="1134">
@@ -12836,7 +12836,7 @@
         <v>4496617.87812835</v>
       </c>
       <c r="C1134" t="n">
-        <v>9475378.0830283</v>
+        <v>9475210.29414851</v>
       </c>
     </row>
     <row r="1135">
@@ -12847,7 +12847,7 @@
         <v>4559416.31378937</v>
       </c>
       <c r="C1135" t="n">
-        <v>9480976.69156469</v>
+        <v>9480773.922888109</v>
       </c>
     </row>
     <row r="1136">
@@ -12858,7 +12858,7 @@
         <v>4549950.64145169</v>
       </c>
       <c r="C1136" t="n">
-        <v>9486225.50213268</v>
+        <v>9486006.164078699</v>
       </c>
     </row>
     <row r="1137">
@@ -12869,7 +12869,7 @@
         <v>4551481.25552327</v>
       </c>
       <c r="C1137" t="n">
-        <v>9491473.208075481</v>
+        <v>9491190.53817888</v>
       </c>
     </row>
     <row r="1138">
@@ -12880,7 +12880,7 @@
         <v>4566484.39271895</v>
       </c>
       <c r="C1138" t="n">
-        <v>9496957.67201172</v>
+        <v>9496651.06856993</v>
       </c>
     </row>
     <row r="1139">
@@ -12891,7 +12891,7 @@
         <v>4591287.70879999</v>
       </c>
       <c r="C1139" t="n">
-        <v>9502955.78664881</v>
+        <v>9502597.634032831</v>
       </c>
     </row>
     <row r="1140">
@@ -12902,7 +12902,7 @@
         <v>4590368.32428776</v>
       </c>
       <c r="C1140" t="n">
-        <v>9507812.455283821</v>
+        <v>9507443.256416241</v>
       </c>
     </row>
     <row r="1141">
@@ -12913,7 +12913,7 @@
         <v>4584135.89700498</v>
       </c>
       <c r="C1141" t="n">
-        <v>9513029.96813884</v>
+        <v>9512649.72301966</v>
       </c>
     </row>
     <row r="1142">
@@ -12924,7 +12924,7 @@
         <v>4550287.96749297</v>
       </c>
       <c r="C1142" t="n">
-        <v>9517945.550115841</v>
+        <v>9517543.212493461</v>
       </c>
     </row>
     <row r="1143">
@@ -12935,7 +12935,7 @@
         <v>4510362.08267318</v>
       </c>
       <c r="C1143" t="n">
-        <v>9523814.791817291</v>
+        <v>9523401.40794331</v>
       </c>
     </row>
     <row r="1144">
@@ -12946,7 +12946,7 @@
         <v>4496597.56790846</v>
       </c>
       <c r="C1144" t="n">
-        <v>9528949.08957668</v>
+        <v>9528526.868701421</v>
       </c>
     </row>
     <row r="1145">
@@ -12957,7 +12957,7 @@
         <v>4588771.84997836</v>
       </c>
       <c r="C1145" t="n">
-        <v>9533907.01551828</v>
+        <v>9533457.17901402</v>
       </c>
     </row>
     <row r="1146">
@@ -12968,7 +12968,7 @@
         <v>4596062.21031952</v>
       </c>
       <c r="C1146" t="n">
-        <v>9539638.91549105</v>
+        <v>9539138.634437731</v>
       </c>
     </row>
     <row r="1147">
@@ -12979,7 +12979,7 @@
         <v>4601447.01187607</v>
       </c>
       <c r="C1147" t="n">
-        <v>9544240.41571332</v>
+        <v>9543730.193033559</v>
       </c>
     </row>
     <row r="1148">
@@ -12990,7 +12990,7 @@
         <v>4610847.30968628</v>
       </c>
       <c r="C1148" t="n">
-        <v>9549561.026916919</v>
+        <v>9549028.71173396</v>
       </c>
     </row>
     <row r="1149">
@@ -13001,7 +13001,7 @@
         <v>4595373.33084431</v>
       </c>
       <c r="C1149" t="n">
-        <v>9554818.674486211</v>
+        <v>9554271.999176171</v>
       </c>
     </row>
     <row r="1150">
@@ -13012,7 +13012,7 @@
         <v>4591407.08333337</v>
       </c>
       <c r="C1150" t="n">
-        <v>9559655.45622432</v>
+        <v>9559068.56964186</v>
       </c>
     </row>
     <row r="1151">
@@ -13023,7 +13023,7 @@
         <v>4616790.41217619</v>
       </c>
       <c r="C1151" t="n">
-        <v>9565091.08698182</v>
+        <v>9564493.26351656</v>
       </c>
     </row>
     <row r="1152">
@@ -13034,7 +13034,7 @@
         <v>4621429.37358235</v>
       </c>
       <c r="C1152" t="n">
-        <v>9570600.35941685</v>
+        <v>9569965.35055007</v>
       </c>
     </row>
     <row r="1153">
@@ -13045,7 +13045,7 @@
         <v>4618652.35058786</v>
       </c>
       <c r="C1153" t="n">
-        <v>9575387.068460841</v>
+        <v>9574711.95769044</v>
       </c>
     </row>
     <row r="1154">
@@ -13056,7 +13056,7 @@
         <v>4606341.00128721</v>
       </c>
       <c r="C1154" t="n">
-        <v>9579897.438932391</v>
+        <v>9579196.07964327</v>
       </c>
     </row>
     <row r="1155">
@@ -13067,7 +13067,7 @@
         <v>4580340.21672425</v>
       </c>
       <c r="C1155" t="n">
-        <v>9586463.578809811</v>
+        <v>9585732.68993713</v>
       </c>
     </row>
     <row r="1156">
@@ -13078,7 +13078,7 @@
         <v>4533742.02083262</v>
       </c>
       <c r="C1156" t="n">
-        <v>9590987.802666301</v>
+        <v>9590198.58375198</v>
       </c>
     </row>
     <row r="1157">
@@ -13089,7 +13089,7 @@
         <v>4525966.3273439</v>
       </c>
       <c r="C1157" t="n">
-        <v>9595612.28128187</v>
+        <v>9594799.36578813</v>
       </c>
     </row>
     <row r="1158">
@@ -13100,7 +13100,7 @@
         <v>4647643.83016408</v>
       </c>
       <c r="C1158" t="n">
-        <v>9601467.1592138</v>
+        <v>9600654.24372006</v>
       </c>
     </row>
     <row r="1159">
@@ -13111,7 +13111,7 @@
         <v>4676486.23816577</v>
       </c>
       <c r="C1159" t="n">
-        <v>9607135.74557519</v>
+        <v>9606290.38399579</v>
       </c>
     </row>
     <row r="1160">
@@ -13122,7 +13122,7 @@
         <v>4671270.20644739</v>
       </c>
       <c r="C1160" t="n">
-        <v>9612084.68504753</v>
+        <v>9611215.626888709</v>
       </c>
     </row>
     <row r="1161">
@@ -13133,7 +13133,7 @@
         <v>4651129.64809399</v>
       </c>
       <c r="C1161" t="n">
-        <v>9616993.522616239</v>
+        <v>9616118.99601602</v>
       </c>
     </row>
     <row r="1162">
@@ -13144,7 +13144,7 @@
         <v>4618040.63408755</v>
       </c>
       <c r="C1162" t="n">
-        <v>9622420.768430199</v>
+        <v>9621503.58798706</v>
       </c>
     </row>
     <row r="1163">
@@ -13155,7 +13155,7 @@
         <v>4599304.21407964</v>
       </c>
       <c r="C1163" t="n">
-        <v>9627610.31932443</v>
+        <v>9626676.73355709</v>
       </c>
     </row>
     <row r="1164">
@@ -13166,7 +13166,7 @@
         <v>4575790.36805852</v>
       </c>
       <c r="C1164" t="n">
-        <v>9632544.676286319</v>
+        <v>9631587.39393956</v>
       </c>
     </row>
     <row r="1165">
@@ -13177,7 +13177,7 @@
         <v>4549330.76849391</v>
       </c>
       <c r="C1165" t="n">
-        <v>9638061.2399766</v>
+        <v>9637077.709111121</v>
       </c>
     </row>
     <row r="1166">
@@ -13188,7 +13188,7 @@
         <v>4694841.4838136</v>
       </c>
       <c r="C1166" t="n">
-        <v>9641947.479002381</v>
+        <v>9640942.074371301</v>
       </c>
     </row>
     <row r="1167">
@@ -13199,7 +13199,7 @@
         <v>4708377.9887046</v>
       </c>
       <c r="C1167" t="n">
-        <v>9647275.563745519</v>
+        <v>9646253.753790241</v>
       </c>
     </row>
     <row r="1168">
@@ -13210,7 +13210,7 @@
         <v>4698541.67052342</v>
       </c>
       <c r="C1168" t="n">
-        <v>9653267.88183808</v>
+        <v>9652207.063667459</v>
       </c>
     </row>
     <row r="1169">
@@ -13221,7 +13221,7 @@
         <v>4712168.53767116</v>
       </c>
       <c r="C1169" t="n">
-        <v>9658857.35808043</v>
+        <v>9657781.228273891</v>
       </c>
     </row>
     <row r="1170">
@@ -13232,7 +13232,7 @@
         <v>4702969.77926266</v>
       </c>
       <c r="C1170" t="n">
-        <v>9663629.48461397</v>
+        <v>9662542.41792463</v>
       </c>
     </row>
     <row r="1171">
@@ -13243,7 +13243,7 @@
         <v>4688094.82993136</v>
       </c>
       <c r="C1171" t="n">
-        <v>9668604.57514628</v>
+        <v>9667488.39757912</v>
       </c>
     </row>
     <row r="1172">
@@ -13254,7 +13254,7 @@
         <v>4682493.50764531</v>
       </c>
       <c r="C1172" t="n">
-        <v>9673630.848843319</v>
+        <v>9672509.256977759</v>
       </c>
     </row>
     <row r="1173">
@@ -13265,7 +13265,7 @@
         <v>4680810.05735684</v>
       </c>
       <c r="C1173" t="n">
-        <v>9678852.03728332</v>
+        <v>9677714.202522559</v>
       </c>
     </row>
     <row r="1174">
@@ -13276,7 +13276,7 @@
         <v>4676225.83130655</v>
       </c>
       <c r="C1174" t="n">
-        <v>9684186.92599012</v>
+        <v>9683038.26263256</v>
       </c>
     </row>
     <row r="1175">
@@ -13287,7 +13287,7 @@
         <v>4671521.66970144</v>
       </c>
       <c r="C1175" t="n">
-        <v>9689308.852292489</v>
+        <v>9688149.360338129</v>
       </c>
     </row>
     <row r="1176">
@@ -13298,7 +13298,7 @@
         <v>4676273.56240516</v>
       </c>
       <c r="C1176" t="n">
-        <v>9694100.50639146</v>
+        <v>9692935.6001387</v>
       </c>
     </row>
     <row r="1177">
@@ -13309,7 +13309,7 @@
         <v>4715084.9306154</v>
       </c>
       <c r="C1177" t="n">
-        <v>9699371.14542371</v>
+        <v>9698191.079135429</v>
       </c>
     </row>
     <row r="1178">
@@ -13320,7 +13320,7 @@
         <v>4749384.43755442</v>
       </c>
       <c r="C1178" t="n">
-        <v>9704458.420216219</v>
+        <v>9703258.862453699</v>
       </c>
     </row>
     <row r="1179">
@@ -13331,7 +13331,7 @@
         <v>4752234.24704885</v>
       </c>
       <c r="C1179" t="n">
-        <v>9710090.01247626</v>
+        <v>9708875.294678221</v>
       </c>
     </row>
     <row r="1180">
@@ -13342,7 +13342,7 @@
         <v>4752613.04752957</v>
       </c>
       <c r="C1180" t="n">
-        <v>9714601.927823691</v>
+        <v>9713376.381428851</v>
       </c>
     </row>
     <row r="1181">
@@ -13353,7 +13353,7 @@
         <v>4752912.61791212</v>
       </c>
       <c r="C1181" t="n">
-        <v>9719649.497761151</v>
+        <v>9718404.45989207</v>
       </c>
     </row>
     <row r="1182">
@@ -13364,7 +13364,7 @@
         <v>4756452.45849887</v>
       </c>
       <c r="C1182" t="n">
-        <v>9725055.13330055</v>
+        <v>9723786.27251851</v>
       </c>
     </row>
     <row r="1183">
@@ -13375,7 +13375,7 @@
         <v>4756938.23875723</v>
       </c>
       <c r="C1183" t="n">
-        <v>9730174.89388356</v>
+        <v>9728886.54162728</v>
       </c>
     </row>
     <row r="1184">
@@ -13386,7 +13386,7 @@
         <v>4756185.74660298</v>
       </c>
       <c r="C1184" t="n">
-        <v>9735314.86784734</v>
+        <v>9733997.63933287</v>
       </c>
     </row>
     <row r="1185">
@@ -13397,7 +13397,7 @@
         <v>4767417.00259799</v>
       </c>
       <c r="C1185" t="n">
-        <v>9740572.151610181</v>
+        <v>9739249.50879731</v>
       </c>
     </row>
     <row r="1186">
@@ -13408,7 +13408,7 @@
         <v>4773783.58418558</v>
       </c>
       <c r="C1186" t="n">
-        <v>9745156.257603159</v>
+        <v>9743822.78619349</v>
       </c>
     </row>
     <row r="1187">
@@ -13419,7 +13419,7 @@
         <v>4780854.59182484</v>
       </c>
       <c r="C1187" t="n">
-        <v>9750379.25080937</v>
+        <v>9749045.7793997</v>
       </c>
     </row>
     <row r="1188">
@@ -13430,7 +13430,7 @@
         <v>4771930.38068062</v>
       </c>
       <c r="C1188" t="n">
-        <v>9756232.10739807</v>
+        <v>9754893.221689999</v>
       </c>
     </row>
     <row r="1189">
@@ -13441,7 +13441,7 @@
         <v>4750396.22076939</v>
       </c>
       <c r="C1189" t="n">
-        <v>9760720.56078559</v>
+        <v>9759376.26077912</v>
       </c>
     </row>
     <row r="1190">
@@ -13452,7 +13452,7 @@
         <v>4752718.17515301</v>
       </c>
       <c r="C1190" t="n">
-        <v>9765219.84276993</v>
+        <v>9763859.29986826</v>
       </c>
     </row>
     <row r="1191">
@@ -13463,7 +13463,7 @@
         <v>4734253.21977652</v>
       </c>
       <c r="C1191" t="n">
-        <v>9770477.12653265</v>
+        <v>9769089.51213898</v>
       </c>
     </row>
     <row r="1192">
@@ -13474,7 +13474,7 @@
         <v>4719321.92624254</v>
       </c>
       <c r="C1192" t="n">
-        <v>9775548.51938314</v>
+        <v>9774124.809666689</v>
       </c>
     </row>
     <row r="1193">
@@ -13485,7 +13485,7 @@
         <v>4728530.12195177</v>
       </c>
       <c r="C1193" t="n">
-        <v>9780160.01851356</v>
+        <v>9778736.30879711</v>
       </c>
     </row>
     <row r="1194">
@@ -13496,7 +13496,7 @@
         <v>4752476.58264796</v>
       </c>
       <c r="C1194" t="n">
-        <v>9785004.296738351</v>
+        <v>9783564.5049474</v>
       </c>
     </row>
     <row r="1195">
@@ -13507,7 +13507,7 @@
         <v>4763695.02900019</v>
       </c>
       <c r="C1195" t="n">
-        <v>9790322.817471839</v>
+        <v>9788860.868155999</v>
       </c>
     </row>
     <row r="1196">
@@ -13518,7 +13518,7 @@
         <v>4750693.64922059</v>
       </c>
       <c r="C1196" t="n">
-        <v>9795524.475130379</v>
+        <v>9794057.16512304</v>
       </c>
     </row>
     <row r="1197">
@@ -13529,7 +13529,7 @@
         <v>4745717.04057544</v>
       </c>
       <c r="C1197" t="n">
-        <v>9800290.12987983</v>
+        <v>9798788.8688263</v>
       </c>
     </row>
     <row r="1198">
@@ -13540,7 +13540,7 @@
         <v>4742715.50147032</v>
       </c>
       <c r="C1198" t="n">
-        <v>9805229.47103399</v>
+        <v>9803699.262246359</v>
       </c>
     </row>
     <row r="1199">
@@ -13551,7 +13551,7 @@
         <v>4734187.06695437</v>
       </c>
       <c r="C1199" t="n">
-        <v>9810165.59577338</v>
+        <v>9808620.37704955</v>
       </c>
     </row>
     <row r="1200">
@@ -13562,7 +13562,7 @@
         <v>4752307.79612811</v>
       </c>
       <c r="C1200" t="n">
-        <v>9815590.258198639</v>
+        <v>9814009.65891091</v>
       </c>
     </row>
     <row r="1201">
@@ -13573,7 +13573,7 @@
         <v>4758914.50465368</v>
       </c>
       <c r="C1201" t="n">
-        <v>9820715.079278881</v>
+        <v>9819113.03722515</v>
       </c>
     </row>
     <row r="1202">
@@ -13584,7 +13584,7 @@
         <v>4751624.06625593</v>
       </c>
       <c r="C1202" t="n">
-        <v>9825582.587166959</v>
+        <v>9823959.102347231</v>
       </c>
     </row>
     <row r="1203">
@@ -13595,7 +13595,7 @@
         <v>4746394.4584165</v>
       </c>
       <c r="C1203" t="n">
-        <v>9830470.465682751</v>
+        <v>9828837.33161832</v>
       </c>
     </row>
     <row r="1204">
@@ -13606,7 +13606,7 @@
         <v>4745174.29487163</v>
       </c>
       <c r="C1204" t="n">
-        <v>9835786.484760329</v>
+        <v>9834147.9900044</v>
       </c>
     </row>
     <row r="1205">
@@ -13617,7 +13617,7 @@
         <v>4727940.29412726</v>
       </c>
       <c r="C1205" t="n">
-        <v>9841161.471444329</v>
+        <v>9839501.5339224</v>
       </c>
     </row>
     <row r="1206">
@@ -13628,7 +13628,7 @@
         <v>4694969.30280766</v>
       </c>
       <c r="C1206" t="n">
-        <v>9845757.37096267</v>
+        <v>9844075.99067474</v>
       </c>
     </row>
     <row r="1207">
@@ -13639,7 +13639,7 @@
         <v>4713747.49013411</v>
       </c>
       <c r="C1207" t="n">
-        <v>9850633.45595709</v>
+        <v>9848943.498562761</v>
       </c>
     </row>
     <row r="1208">
@@ -13650,7 +13650,7 @@
         <v>4728093.48928468</v>
       </c>
       <c r="C1208" t="n">
-        <v>9856050.256034911</v>
+        <v>9854339.92801288</v>
       </c>
     </row>
     <row r="1209">
@@ -13661,7 +13661,7 @@
         <v>4764900.71356851</v>
       </c>
       <c r="C1209" t="n">
-        <v>9860738.716826599</v>
+        <v>9859003.72962367</v>
       </c>
     </row>
     <row r="1210">
@@ -13672,7 +13672,7 @@
         <v>4781135.85835784</v>
       </c>
       <c r="C1210" t="n">
-        <v>9865857.105077179</v>
+        <v>9864085.66517205</v>
       </c>
     </row>
     <row r="1211">
@@ -13683,7 +13683,7 @@
         <v>4825056.48757803</v>
       </c>
       <c r="C1211" t="n">
-        <v>9871160.615874451</v>
+        <v>9869378.45458632</v>
       </c>
     </row>
     <row r="1212">
@@ -13694,7 +13694,7 @@
         <v>4805646.87819204</v>
       </c>
       <c r="C1212" t="n">
-        <v>9876272.9286747</v>
+        <v>9874485.40669507</v>
       </c>
     </row>
     <row r="1213">
@@ -13705,7 +13705,7 @@
         <v>4789900.47635926</v>
       </c>
       <c r="C1213" t="n">
-        <v>9881142.223459929</v>
+        <v>9879349.3407888</v>
       </c>
     </row>
     <row r="1214">
@@ -13716,7 +13716,7 @@
         <v>4782825.98106486</v>
       </c>
       <c r="C1214" t="n">
-        <v>9885792.646338681</v>
+        <v>9883991.271482989</v>
       </c>
     </row>
     <row r="1215">
@@ -13727,7 +13727,7 @@
         <v>4776189.01526254</v>
       </c>
       <c r="C1215" t="n">
-        <v>9890662.20649974</v>
+        <v>9888856.58555177</v>
       </c>
     </row>
     <row r="1216">
@@ -13738,7 +13738,7 @@
         <v>4771874.35663341</v>
       </c>
       <c r="C1216" t="n">
-        <v>9895897.284437779</v>
+        <v>9894075.74064376</v>
       </c>
     </row>
     <row r="1217">
@@ -13749,7 +13749,7 @@
         <v>4771079.57196591</v>
       </c>
       <c r="C1217" t="n">
-        <v>9900762.598506629</v>
+        <v>9898919.82425121</v>
       </c>
     </row>
     <row r="1218">
@@ -13760,7 +13760,7 @@
         <v>4790480.8108129</v>
       </c>
       <c r="C1218" t="n">
-        <v>9905569.528806649</v>
+        <v>9903710.831705181</v>
       </c>
     </row>
     <row r="1219">
@@ -13771,7 +13771,7 @@
         <v>4796136.71658269</v>
       </c>
       <c r="C1219" t="n">
-        <v>9910707.30046335</v>
+        <v>9908837.98813118</v>
       </c>
     </row>
     <row r="1220">
@@ -13782,7 +13782,7 @@
         <v>4795366.62324471</v>
       </c>
       <c r="C1220" t="n">
-        <v>9915975.993298599</v>
+        <v>9914106.680966429</v>
       </c>
     </row>
     <row r="1221">
@@ -13793,7 +13793,7 @@
         <v>4809144.8145093</v>
       </c>
       <c r="C1221" t="n">
-        <v>9920440.40548816</v>
+        <v>9918533.232166501</v>
       </c>
     </row>
     <row r="1222">
@@ -13804,7 +13804,7 @@
         <v>4844427.05880969</v>
       </c>
       <c r="C1222" t="n">
-        <v>9925868.326783881</v>
+        <v>9923939.92300082</v>
       </c>
     </row>
     <row r="1223">
@@ -13815,7 +13815,7 @@
         <v>4841394.66720317</v>
       </c>
       <c r="C1223" t="n">
-        <v>9930559.19722829</v>
+        <v>9928610.6245069</v>
       </c>
     </row>
     <row r="1224">
@@ -13826,7 +13826,7 @@
         <v>4843739.64763207</v>
       </c>
       <c r="C1224" t="n">
-        <v>9935475.81824551</v>
+        <v>9933521.937908771</v>
       </c>
     </row>
     <row r="1225">
@@ -13837,7 +13837,7 @@
         <v>4832746.88271144</v>
       </c>
       <c r="C1225" t="n">
-        <v>9940987.599863769</v>
+        <v>9939013.550588701</v>
       </c>
     </row>
     <row r="1226">
@@ -13848,7 +13848,7 @@
         <v>4830552.03920776</v>
       </c>
       <c r="C1226" t="n">
-        <v>9945674.22421588</v>
+        <v>9943684.252094761</v>
       </c>
     </row>
     <row r="1227">
@@ -13859,7 +13859,7 @@
         <v>4833329.43660655</v>
       </c>
       <c r="C1227" t="n">
-        <v>9950896.917718161</v>
+        <v>9948885.71513564</v>
       </c>
     </row>
     <row r="1228">
@@ -13870,7 +13870,7 @@
         <v>4839365.84933123</v>
       </c>
       <c r="C1228" t="n">
-        <v>9955774.26238185</v>
+        <v>9953743.95238407</v>
       </c>
     </row>
     <row r="1229">
@@ -13881,7 +13881,7 @@
         <v>4854530.80934025</v>
       </c>
       <c r="C1229" t="n">
-        <v>9961054.278129891</v>
+        <v>9958991.414757971</v>
       </c>
     </row>
     <row r="1230">
@@ -13892,7 +13892,7 @@
         <v>4858717.40043905</v>
       </c>
       <c r="C1230" t="n">
-        <v>9965710.82599505</v>
+        <v>9963647.962623131</v>
       </c>
     </row>
     <row r="1231">
@@ -13903,7 +13903,7 @@
         <v>4861484.25428786</v>
       </c>
       <c r="C1231" t="n">
-        <v>9970329.86671176</v>
+        <v>9968258.511155279</v>
       </c>
     </row>
     <row r="1232">
@@ -13914,7 +13914,7 @@
         <v>4856807.6343112</v>
       </c>
       <c r="C1232" t="n">
-        <v>9975533.80663977</v>
+        <v>9973442.28214496</v>
       </c>
     </row>
     <row r="1233">
@@ -13925,7 +13925,7 @@
         <v>4840411.46940232</v>
       </c>
       <c r="C1233" t="n">
-        <v>9981036.388391361</v>
+        <v>9978916.20277366</v>
       </c>
     </row>
     <row r="1234">
@@ -13936,7 +13936,7 @@
         <v>4832197.33776037</v>
       </c>
       <c r="C1234" t="n">
-        <v>9985969.63993663</v>
+        <v>9983834.592995949</v>
       </c>
     </row>
     <row r="1235">
@@ -13947,7 +13947,7 @@
         <v>4843603.87333489</v>
       </c>
       <c r="C1235" t="n">
-        <v>9990694.95908205</v>
+        <v>9988543.989295321</v>
       </c>
     </row>
     <row r="1236">
@@ -13958,7 +13958,7 @@
         <v>4851409.47173591</v>
       </c>
       <c r="C1236" t="n">
-        <v>9995309.60656542</v>
+        <v>9993143.922597529</v>
       </c>
     </row>
     <row r="1237">
@@ -13969,7 +13969,7 @@
         <v>4863223.55992823</v>
       </c>
       <c r="C1237" t="n">
-        <v>10001060.04869958</v>
+        <v>9998864.936369371</v>
       </c>
     </row>
     <row r="1238">
@@ -13980,7 +13980,7 @@
         <v>4861786.5999477</v>
       </c>
       <c r="C1238" t="n">
-        <v>10005525.10200782</v>
+        <v>10003289.70084823</v>
       </c>
     </row>
     <row r="1239">
@@ -13991,7 +13991,7 @@
         <v>4858611.45341854</v>
       </c>
       <c r="C1239" t="n">
-        <v>10010855.48930349</v>
+        <v>10008614.8330792</v>
       </c>
     </row>
     <row r="1240">
@@ -14002,7 +14002,7 @@
         <v>4844485.3466631</v>
       </c>
       <c r="C1240" t="n">
-        <v>10015692.2508549</v>
+        <v>10013428.47234593</v>
       </c>
     </row>
     <row r="1241">
@@ -14013,7 +14013,7 @@
         <v>4866243.56416257</v>
       </c>
       <c r="C1241" t="n">
-        <v>10020924.54360971</v>
+        <v>10018655.51003604</v>
       </c>
     </row>
     <row r="1242">
@@ -14024,7 +14024,7 @@
         <v>4883406.56693024</v>
       </c>
       <c r="C1242" t="n">
-        <v>10025533.23535318</v>
+        <v>10023258.94671481</v>
       </c>
     </row>
     <row r="1243">
@@ -14035,7 +14035,7 @@
         <v>4906758.49905898</v>
       </c>
       <c r="C1243" t="n">
-        <v>10030425.70059053</v>
+        <v>10028128.64000512</v>
       </c>
     </row>
     <row r="1244">
@@ -14046,7 +14046,7 @@
         <v>4929200.27240286</v>
       </c>
       <c r="C1244" t="n">
-        <v>10035765.54700273</v>
+        <v>10033453.77223616</v>
       </c>
     </row>
     <row r="1245">
@@ -14057,7 +14057,7 @@
         <v>4914365.13276761</v>
       </c>
       <c r="C1245" t="n">
-        <v>10039731.36916442</v>
+        <v>10037419.59439785</v>
       </c>
     </row>
     <row r="1246">
@@ -14068,7 +14068,7 @@
         <v>4908641.46058337</v>
       </c>
       <c r="C1246" t="n">
-        <v>10045151.09256018</v>
+        <v>10042818.29753481</v>
       </c>
     </row>
     <row r="1247">
@@ -14079,7 +14079,7 @@
         <v>4895976.00881938</v>
       </c>
       <c r="C1247" t="n">
-        <v>10050613.55714885</v>
+        <v>10048266.04794232</v>
       </c>
     </row>
     <row r="1248">
@@ -14090,7 +14090,7 @@
         <v>4886086.44359542</v>
       </c>
       <c r="C1248" t="n">
-        <v>10055587.30072031</v>
+        <v>10053219.82226792</v>
       </c>
     </row>
     <row r="1249">
@@ -14101,7 +14101,7 @@
         <v>4903426.69652228</v>
       </c>
       <c r="C1249" t="n">
-        <v>10060346.6376519</v>
+        <v>10057973.90413481</v>
       </c>
     </row>
     <row r="1250">
@@ -14112,7 +14112,7 @@
         <v>4940183.04555669</v>
       </c>
       <c r="C1250" t="n">
-        <v>10065081.4509482</v>
+        <v>10062682.44210761</v>
       </c>
     </row>
     <row r="1251">
@@ -14123,7 +14123,7 @@
         <v>4954891.24173601</v>
       </c>
       <c r="C1251" t="n">
-        <v>10070704.37017912</v>
+        <v>10068284.34107973</v>
       </c>
     </row>
     <row r="1252">
@@ -14134,7 +14134,7 @@
         <v>4958011.33781506</v>
       </c>
       <c r="C1252" t="n">
-        <v>10075400.64633427</v>
+        <v>10072975.36217018</v>
       </c>
     </row>
     <row r="1253">
@@ -14145,7 +14145,7 @@
         <v>4959127.11263945</v>
       </c>
       <c r="C1253" t="n">
-        <v>10080620.67727149</v>
+        <v>10078163.8627192</v>
       </c>
     </row>
     <row r="1254">
@@ -14156,7 +14156,7 @@
         <v>4941763.25868432</v>
       </c>
       <c r="C1254" t="n">
-        <v>10085573.40058416</v>
+        <v>10083086.10665661</v>
       </c>
     </row>
     <row r="1255">
@@ -14167,7 +14167,7 @@
         <v>4941038.60871976</v>
       </c>
       <c r="C1255" t="n">
-        <v>10090354.45844981</v>
+        <v>10087829.67839406</v>
       </c>
     </row>
     <row r="1256">
@@ -14178,7 +14178,7 @@
         <v>4969315.74597546</v>
       </c>
       <c r="C1256" t="n">
-        <v>10095339.7631636</v>
+        <v>10092804.47297845</v>
       </c>
     </row>
     <row r="1257">
@@ -14189,7 +14189,7 @@
         <v>5006012.79771642</v>
       </c>
       <c r="C1257" t="n">
-        <v>10100416.76268331</v>
+        <v>10097839.84822336</v>
       </c>
     </row>
     <row r="1258">
@@ -14200,7 +14200,7 @@
         <v>5011359.99333501</v>
       </c>
       <c r="C1258" t="n">
-        <v>10105612.85965904</v>
+        <v>10103008.19568254</v>
       </c>
     </row>
     <row r="1259">
@@ -14211,7 +14211,7 @@
         <v>5011312.0561606</v>
       </c>
       <c r="C1259" t="n">
-        <v>10110505.44629736</v>
+        <v>10107867.82976996</v>
       </c>
     </row>
     <row r="1260">
@@ -14222,7 +14222,7 @@
         <v>5027484.73623384</v>
       </c>
       <c r="C1260" t="n">
-        <v>10115173.95558949</v>
+        <v>10112533.21724148</v>
       </c>
     </row>
     <row r="1261">
@@ -14233,7 +14233,7 @@
         <v>5022338.32768611</v>
       </c>
       <c r="C1261" t="n">
-        <v>10120400.9239023</v>
+        <v>10117729.31421713</v>
       </c>
     </row>
     <row r="1262">
@@ -14244,7 +14244,7 @@
         <v>5005773.16875697</v>
       </c>
       <c r="C1262" t="n">
-        <v>10125425.32074432</v>
+        <v>10122720.75850825</v>
       </c>
     </row>
     <row r="1263">
@@ -14255,7 +14255,7 @@
         <v>5011368.99450837</v>
       </c>
       <c r="C1263" t="n">
-        <v>10130695.99454574</v>
+        <v>10127986.22927532</v>
       </c>
     </row>
     <row r="1264">
@@ -14266,7 +14266,7 @@
         <v>5029848.02785536</v>
       </c>
       <c r="C1264" t="n">
-        <v>10135418.6153952</v>
+        <v>10132693.24102173</v>
       </c>
     </row>
     <row r="1265">
@@ -14277,7 +14277,7 @@
         <v>5036146.0650759</v>
       </c>
       <c r="C1265" t="n">
-        <v>10139981.67652446</v>
+        <v>10137240.69304794</v>
       </c>
     </row>
     <row r="1266">
@@ -14288,7 +14288,7 @@
         <v>5038285.51484039</v>
       </c>
       <c r="C1266" t="n">
-        <v>10144549.94068805</v>
+        <v>10141808.95721153</v>
       </c>
     </row>
     <row r="1267">
@@ -14299,7 +14299,7 @@
         <v>5049831.67284081</v>
       </c>
       <c r="C1267" t="n">
-        <v>10150216.04510052</v>
+        <v>10147459.45252095</v>
       </c>
     </row>
     <row r="1268">
@@ -14310,7 +14310,7 @@
         <v>5030310.58199036</v>
       </c>
       <c r="C1268" t="n">
-        <v>10155073.94484319</v>
+        <v>10152312.14922927</v>
       </c>
     </row>
     <row r="1269">
@@ -14321,7 +14321,7 @@
         <v>5015535.40550999</v>
       </c>
       <c r="C1269" t="n">
-        <v>10159808.35923714</v>
+        <v>10157022.62966521</v>
       </c>
     </row>
     <row r="1270">
@@ -14332,7 +14332,7 @@
         <v>5022376.94898552</v>
       </c>
       <c r="C1270" t="n">
-        <v>10164571.56375452</v>
+        <v>10161771.26568641</v>
       </c>
     </row>
     <row r="1271">
@@ -14343,7 +14343,7 @@
         <v>5034227.51254667</v>
       </c>
       <c r="C1271" t="n">
-        <v>10169651.45962966</v>
+        <v>10166818.20901065</v>
       </c>
     </row>
     <row r="1272">
@@ -14354,7 +14354,7 @@
         <v>5043871.3935181</v>
       </c>
       <c r="C1272" t="n">
-        <v>10174188.5055871</v>
+        <v>10171355.25496809</v>
       </c>
     </row>
     <row r="1273">
@@ -14365,7 +14365,7 @@
         <v>5067172.05598358</v>
       </c>
       <c r="C1273" t="n">
-        <v>10179652.03852867</v>
+        <v>10176811.50366157</v>
       </c>
     </row>
     <row r="1274">
@@ -14376,7 +14376,7 @@
         <v>5082589.18802352</v>
       </c>
       <c r="C1274" t="n">
-        <v>10184657.35757806</v>
+        <v>10181806.41664226</v>
       </c>
     </row>
     <row r="1275">
@@ -14387,7 +14387,7 @@
         <v>5072373.48205242</v>
       </c>
       <c r="C1275" t="n">
-        <v>10189180.52877722</v>
+        <v>10186319.18177272</v>
       </c>
     </row>
     <row r="1276">
@@ -14398,7 +14398,7 @@
         <v>5058531.32861427</v>
       </c>
       <c r="C1276" t="n">
-        <v>10194668.6894147</v>
+        <v>10191758.08701832</v>
       </c>
     </row>
     <row r="1277">
@@ -14409,7 +14409,7 @@
         <v>5071700.39882028</v>
       </c>
       <c r="C1277" t="n">
-        <v>10199410.38805677</v>
+        <v>10196478.97352299</v>
       </c>
     </row>
     <row r="1278">
@@ -14420,7 +14420,7 @@
         <v>5078593.66364682</v>
       </c>
       <c r="C1278" t="n">
-        <v>10203858.22687213</v>
+        <v>10200907.13353518</v>
       </c>
     </row>
     <row r="1279">
@@ -14431,7 +14431,7 @@
         <v>5090740.39107581</v>
       </c>
       <c r="C1279" t="n">
-        <v>10209009.40259644</v>
+        <v>10206027.74357917</v>
       </c>
     </row>
     <row r="1280">
@@ -14442,7 +14442,7 @@
         <v>5082284.33068771</v>
       </c>
       <c r="C1280" t="n">
-        <v>10213710.6789808</v>
+        <v>10210677.84820661</v>
       </c>
     </row>
     <row r="1281">
@@ -14453,7 +14453,7 @@
         <v>5097809.76804968</v>
       </c>
       <c r="C1281" t="n">
-        <v>10218678.46062292</v>
+        <v>10215619.87225298</v>
       </c>
     </row>
     <row r="1282">
@@ -14464,7 +14464,7 @@
         <v>5069948.88795739</v>
       </c>
       <c r="C1282" t="n">
-        <v>10223477.95930596</v>
+        <v>10220403.91637857</v>
       </c>
     </row>
     <row r="1283">
@@ -14475,7 +14475,7 @@
         <v>5060523.84129711</v>
       </c>
       <c r="C1283" t="n">
-        <v>10228395.599495</v>
+        <v>10225297.85957952</v>
       </c>
     </row>
     <row r="1284">
@@ -14486,7 +14486,7 @@
         <v>5065869.25819008</v>
       </c>
       <c r="C1284" t="n">
-        <v>10233387.42155997</v>
+        <v>10230263.92404874</v>
       </c>
     </row>
     <row r="1285">
@@ -14497,7 +14497,7 @@
         <v>5108908.79290347</v>
       </c>
       <c r="C1285" t="n">
-        <v>10238411.86991299</v>
+        <v>10235278.06936346</v>
       </c>
     </row>
     <row r="1286">
@@ -14508,7 +14508,7 @@
         <v>5142092.12458506</v>
       </c>
       <c r="C1286" t="n">
-        <v>10243616.27800188</v>
+        <v>10240436.45721458</v>
       </c>
     </row>
     <row r="1287">
@@ -14519,7 +14519,7 @@
         <v>5145453.39179157</v>
       </c>
       <c r="C1287" t="n">
-        <v>10248816.56487546</v>
+        <v>10245601.71375794</v>
       </c>
     </row>
     <row r="1288">
@@ -14530,7 +14530,7 @@
         <v>5163471.48522786</v>
       </c>
       <c r="C1288" t="n">
-        <v>10253449.49777236</v>
+        <v>10250224.34361654</v>
       </c>
     </row>
     <row r="1289">
@@ -14541,7 +14541,7 @@
         <v>5163218.99958985</v>
       </c>
       <c r="C1289" t="n">
-        <v>10258355.46118474</v>
+        <v>10255125.15550977</v>
       </c>
     </row>
     <row r="1290">
@@ -14552,7 +14552,7 @@
         <v>5135075.74445828</v>
       </c>
       <c r="C1290" t="n">
-        <v>10263033.04058104</v>
+        <v>10259782.12882947</v>
       </c>
     </row>
     <row r="1291">
@@ -14563,7 +14563,7 @@
         <v>5123219.45362021</v>
       </c>
       <c r="C1291" t="n">
-        <v>10268194.86277828</v>
+        <v>10264933.64798841</v>
       </c>
     </row>
     <row r="1292">
@@ -14574,7 +14574,7 @@
         <v>5135658.79712438</v>
       </c>
       <c r="C1292" t="n">
-        <v>10272642.34098548</v>
+        <v>10269370.82315731</v>
       </c>
     </row>
     <row r="1293">
@@ -14585,7 +14585,7 @@
         <v>5161346.36572649</v>
       </c>
       <c r="C1293" t="n">
-        <v>10277563.75895529</v>
+        <v>10274271.63505052</v>
       </c>
     </row>
     <row r="1294">
@@ -14596,7 +14596,7 @@
         <v>5150889.4191913</v>
       </c>
       <c r="C1294" t="n">
-        <v>10283002.04601408</v>
+        <v>10279704.77059016</v>
       </c>
     </row>
     <row r="1295">
@@ -14607,7 +14607,7 @@
         <v>5159009.64664353</v>
       </c>
       <c r="C1295" t="n">
-        <v>10287947.50440658</v>
+        <v>10284629.62290606</v>
       </c>
     </row>
     <row r="1296">
@@ -14618,7 +14618,7 @@
         <v>5159725.53924681</v>
       </c>
       <c r="C1296" t="n">
-        <v>10292992.55883618</v>
+        <v>10289664.37429736</v>
       </c>
     </row>
     <row r="1297">
@@ -14629,7 +14629,7 @@
         <v>5169852.90945627</v>
       </c>
       <c r="C1297" t="n">
-        <v>10297374.78446734</v>
+        <v>10294025.99385192</v>
       </c>
     </row>
     <row r="1298">
@@ -14640,7 +14640,7 @@
         <v>5194176.83880011</v>
       </c>
       <c r="C1298" t="n">
-        <v>10301980.24259544</v>
+        <v>10298621.14894172</v>
       </c>
     </row>
     <row r="1299">
@@ -14651,7 +14651,7 @@
         <v>5211062.82443019</v>
       </c>
       <c r="C1299" t="n">
-        <v>10307395.42432531</v>
+        <v>10304026.07863844</v>
       </c>
     </row>
     <row r="1300">
@@ -14662,7 +14662,7 @@
         <v>5214733.01180645</v>
       </c>
       <c r="C1300" t="n">
-        <v>10312273.21589686</v>
+        <v>10308898.76969599</v>
       </c>
     </row>
     <row r="1301">
@@ -14673,7 +14673,7 @@
         <v>5207461.02999818</v>
       </c>
       <c r="C1301" t="n">
-        <v>10316861.97834075</v>
+        <v>10313455.22888449</v>
       </c>
     </row>
     <row r="1302">
@@ -14684,7 +14684,7 @@
         <v>5237090.83366783</v>
       </c>
       <c r="C1302" t="n">
-        <v>10322095.10572213</v>
+        <v>10318678.15523787</v>
       </c>
     </row>
     <row r="1303">
@@ -14695,7 +14695,7 @@
         <v>5234017.51722416</v>
       </c>
       <c r="C1303" t="n">
-        <v>10326930.39301022</v>
+        <v>10323496.44081257</v>
       </c>
     </row>
     <row r="1304">
@@ -14706,7 +14706,7 @@
         <v>5214047.63926994</v>
       </c>
       <c r="C1304" t="n">
-        <v>10331751.05882476</v>
+        <v>10328307.92570191</v>
       </c>
     </row>
     <row r="1305">
@@ -14717,7 +14717,7 @@
         <v>5204242.19971926</v>
       </c>
       <c r="C1305" t="n">
-        <v>10336365.32383873</v>
+        <v>10332894.98797449</v>
       </c>
     </row>
     <row r="1306">
@@ -14728,7 +14728,7 @@
         <v>5211362.0459577</v>
       </c>
       <c r="C1306" t="n">
-        <v>10341579.74933538</v>
+        <v>10338104.31295714</v>
       </c>
     </row>
     <row r="1307">
@@ -14739,7 +14739,7 @@
         <v>5215950.20991673</v>
       </c>
       <c r="C1307" t="n">
-        <v>10345835.27819679</v>
+        <v>10342334.33924855</v>
       </c>
     </row>
     <row r="1308">
@@ -14750,7 +14750,7 @@
         <v>5247637.73834872</v>
       </c>
       <c r="C1308" t="n">
-        <v>10350969.79564052</v>
+        <v>10347458.65566428</v>
       </c>
     </row>
     <row r="1309">
@@ -14761,7 +14761,7 @@
         <v>5259944.26135495</v>
       </c>
       <c r="C1309" t="n">
-        <v>10355873.08978214</v>
+        <v>10352351.7487779</v>
       </c>
     </row>
     <row r="1310">
@@ -14772,7 +14772,7 @@
         <v>5251718.62197849</v>
       </c>
       <c r="C1310" t="n">
-        <v>10360612.14737241</v>
+        <v>10357081.62544297</v>
       </c>
     </row>
     <row r="1311">
@@ -14783,7 +14783,7 @@
         <v>5248349.94527762</v>
       </c>
       <c r="C1311" t="n">
-        <v>10365442.33414645</v>
+        <v>10361906.71170301</v>
       </c>
     </row>
     <row r="1312">
@@ -14794,7 +14794,7 @@
         <v>5266121.97920282</v>
       </c>
       <c r="C1312" t="n">
-        <v>10370600.65398886</v>
+        <v>10367044.62948942</v>
       </c>
     </row>
     <row r="1313">
@@ -14805,7 +14805,7 @@
         <v>5269330.80495288</v>
       </c>
       <c r="C1313" t="n">
-        <v>10375220.01951688</v>
+        <v>10371641.89279005</v>
       </c>
     </row>
     <row r="1314">
@@ -14816,7 +14816,7 @@
         <v>5271117.02072542</v>
       </c>
       <c r="C1314" t="n">
-        <v>10379858.08692961</v>
+        <v>10376269.75917478</v>
       </c>
     </row>
     <row r="1315">
@@ -14827,7 +14827,7 @@
         <v>5278960.33894834</v>
       </c>
       <c r="C1315" t="n">
-        <v>10384616.86650734</v>
+        <v>10381003.03618251</v>
       </c>
     </row>
     <row r="1316">
@@ -14838,7 +14838,7 @@
         <v>5297477.76024786</v>
       </c>
       <c r="C1316" t="n">
-        <v>10389931.60211296</v>
+        <v>10386280.36801874</v>
       </c>
     </row>
     <row r="1317">
@@ -14849,7 +14849,7 @@
         <v>5267002.88900481</v>
       </c>
       <c r="C1317" t="n">
-        <v>10394780.49077169</v>
+        <v>10391108.85462147</v>
       </c>
     </row>
     <row r="1318">
@@ -14860,7 +14860,7 @@
         <v>5233586.01883481</v>
       </c>
       <c r="C1318" t="n">
-        <v>10399602.17668902</v>
+        <v>10395886.33608402</v>
       </c>
     </row>
     <row r="1319">
@@ -14871,7 +14871,7 @@
         <v>5253970.12227019</v>
       </c>
       <c r="C1319" t="n">
-        <v>10404678.88830717</v>
+        <v>10400925.64393278</v>
       </c>
     </row>
     <row r="1320">
@@ -14882,7 +14882,7 @@
         <v>5273617.12779368</v>
       </c>
       <c r="C1320" t="n">
-        <v>10409236.02756413</v>
+        <v>10405458.30072254</v>
       </c>
     </row>
     <row r="1321">
@@ -14893,7 +14893,7 @@
         <v>5268537.95164446</v>
       </c>
       <c r="C1321" t="n">
-        <v>10414279.02191942</v>
+        <v>10410496.24506398</v>
       </c>
     </row>
     <row r="1322">
@@ -14904,7 +14904,7 @@
         <v>5278285.22110247</v>
       </c>
       <c r="C1322" t="n">
-        <v>10418509.25020771</v>
+        <v>10414694.48993114</v>
       </c>
     </row>
     <row r="1323">
@@ -14915,7 +14915,7 @@
         <v>5319438.87791202</v>
       </c>
       <c r="C1323" t="n">
-        <v>10423919.49840455</v>
+        <v>10420104.73812798</v>
       </c>
     </row>
     <row r="1324">
@@ -14926,7 +14926,7 @@
         <v>5300907.10417986</v>
       </c>
       <c r="C1324" t="n">
-        <v>10428784.34510288</v>
+        <v>10424932.55139133</v>
       </c>
     </row>
     <row r="1325">
@@ -14937,7 +14937,7 @@
         <v>5277986.09300082</v>
       </c>
       <c r="C1325" t="n">
-        <v>10433024.67341874</v>
+        <v>10429167.82969334</v>
       </c>
     </row>
     <row r="1326">
@@ -14948,7 +14948,7 @@
         <v>5273761.69200121</v>
       </c>
       <c r="C1326" t="n">
-        <v>10438199.25430128</v>
+        <v>10434285.1770855</v>
       </c>
     </row>
     <row r="1327">
@@ -14959,7 +14959,7 @@
         <v>5260379.63119088</v>
       </c>
       <c r="C1327" t="n">
-        <v>10442847.28707066</v>
+        <v>10438910.98979394</v>
       </c>
     </row>
     <row r="1328">
@@ -14970,7 +14970,7 @@
         <v>5244414.86174928</v>
       </c>
       <c r="C1328" t="n">
-        <v>10447538.74995938</v>
+        <v>10443587.30264111</v>
       </c>
     </row>
     <row r="1329">
@@ -14981,7 +14981,7 @@
         <v>5261265.89453089</v>
       </c>
       <c r="C1329" t="n">
-        <v>10452114.06252906</v>
+        <v>10448152.51518309</v>
       </c>
     </row>
     <row r="1330">
@@ -14992,7 +14992,7 @@
         <v>5260759.07352871</v>
       </c>
       <c r="C1330" t="n">
-        <v>10457081.59284284</v>
+        <v>10453094.79542762</v>
       </c>
     </row>
     <row r="1331">
@@ -15003,7 +15003,7 @@
         <v>5250350.27848948</v>
       </c>
       <c r="C1331" t="n">
-        <v>10462384.10741031</v>
+        <v>10458387.20996739</v>
       </c>
     </row>
     <row r="1332">
@@ -15014,7 +15014,7 @@
         <v>5225674.81515584</v>
       </c>
       <c r="C1332" t="n">
-        <v>10466397.18510209</v>
+        <v>10462400.28765917</v>
       </c>
     </row>
     <row r="1333">
@@ -15025,7 +15025,7 @@
         <v>5225999.22451313</v>
       </c>
       <c r="C1333" t="n">
-        <v>10471858.60677276</v>
+        <v>10467847.56929106</v>
       </c>
     </row>
     <row r="1334">
@@ -15036,7 +15036,7 @@
         <v>5239630.69394344</v>
       </c>
       <c r="C1334" t="n">
-        <v>10476193.20201435</v>
+        <v>10472167.0144911</v>
       </c>
     </row>
     <row r="1335">
@@ -15047,7 +15047,7 @@
         <v>5258367.45569403</v>
       </c>
       <c r="C1335" t="n">
-        <v>10481419.96637365</v>
+        <v>10477378.62880885</v>
       </c>
     </row>
     <row r="1336">
@@ -15058,7 +15058,7 @@
         <v>5259448.34481014</v>
       </c>
       <c r="C1336" t="n">
-        <v>10486209.7361991</v>
+        <v>10482159.30860937</v>
       </c>
     </row>
     <row r="1337">
@@ -15069,7 +15069,7 @@
         <v>5252637.31069566</v>
       </c>
       <c r="C1337" t="n">
-        <v>10490997.82268664</v>
+        <v>10486933.25505813</v>
       </c>
     </row>
     <row r="1338">
@@ -15080,7 +15080,7 @@
         <v>5242683.69567316</v>
       </c>
       <c r="C1338" t="n">
-        <v>10495336.45793929</v>
+        <v>10491252.70025815</v>
       </c>
     </row>
     <row r="1339">
@@ -15091,7 +15091,7 @@
         <v>5222878.29756888</v>
       </c>
       <c r="C1339" t="n">
-        <v>10500623.82246507</v>
+        <v>10496504.71468698</v>
       </c>
     </row>
     <row r="1340">
@@ -15102,7 +15102,7 @@
         <v>5216329.28509634</v>
       </c>
       <c r="C1340" t="n">
-        <v>10505212.26507066</v>
+        <v>10501080.02725656</v>
       </c>
     </row>
     <row r="1341">
@@ -15113,7 +15113,7 @@
         <v>5264045.56731972</v>
       </c>
       <c r="C1341" t="n">
-        <v>10509640.11723517</v>
+        <v>10505503.83940999</v>
       </c>
     </row>
     <row r="1342">
@@ -15124,7 +15124,7 @@
         <v>5278247.80108794</v>
       </c>
       <c r="C1342" t="n">
-        <v>10514387.06360667</v>
+        <v>10510231.73572928</v>
       </c>
     </row>
     <row r="1343">
@@ -15135,7 +15135,7 @@
         <v>5277758.45404003</v>
       </c>
       <c r="C1343" t="n">
-        <v>10519177.07675879</v>
+        <v>10514991.7487992</v>
       </c>
     </row>
     <row r="1344">
@@ -15146,7 +15146,7 @@
         <v>5301678.97706867</v>
       </c>
       <c r="C1344" t="n">
-        <v>10524130.42369288</v>
+        <v>10519918.42899346</v>
       </c>
     </row>
     <row r="1345">
@@ -15157,7 +15157,7 @@
         <v>5291513.10120167</v>
       </c>
       <c r="C1345" t="n">
-        <v>10529044.43718556</v>
+        <v>10524801.77573535</v>
       </c>
     </row>
     <row r="1346">
@@ -15168,7 +15168,7 @@
         <v>5308010.3086823</v>
       </c>
       <c r="C1346" t="n">
-        <v>10533679.44991217</v>
+        <v>10529411.78839346</v>
       </c>
     </row>
     <row r="1347">
@@ -15179,7 +15179,7 @@
         <v>5305602.3568054</v>
       </c>
       <c r="C1347" t="n">
-        <v>10538406.12955711</v>
+        <v>10534118.4679836</v>
       </c>
     </row>
     <row r="1348">
@@ -15190,7 +15190,7 @@
         <v>5301225.56352759</v>
       </c>
       <c r="C1348" t="n">
-        <v>10543386.14323097</v>
+        <v>10539078.48160266</v>
       </c>
     </row>
     <row r="1349">
@@ -15201,7 +15201,7 @@
         <v>5290862.50086875</v>
       </c>
       <c r="C1349" t="n">
-        <v>10547325.82071491</v>
+        <v>10542985.15899618</v>
       </c>
     </row>
     <row r="1350">
@@ -15212,7 +15212,7 @@
         <v>5294982.36331199</v>
       </c>
       <c r="C1350" t="n">
-        <v>10551592.8324306</v>
+        <v>10547218.50395286</v>
       </c>
     </row>
     <row r="1351">
@@ -15223,7 +15223,7 @@
         <v>5307251.64585487</v>
       </c>
       <c r="C1351" t="n">
-        <v>10556799.84672744</v>
+        <v>10552398.51817572</v>
       </c>
     </row>
     <row r="1352">
@@ -15234,7 +15234,7 @@
         <v>5295205.2109115</v>
       </c>
       <c r="C1352" t="n">
-        <v>10561349.85922065</v>
+        <v>10556928.53061413</v>
       </c>
     </row>
     <row r="1353">
@@ -15245,7 +15245,7 @@
         <v>5283229.40413896</v>
       </c>
       <c r="C1353" t="n">
-        <v>10565754.53798156</v>
+        <v>10561325.20935312</v>
       </c>
     </row>
     <row r="1354">
@@ -15256,7 +15256,7 @@
         <v>5323249.46080697</v>
       </c>
       <c r="C1354" t="n">
-        <v>10570646.2180797</v>
+        <v>10566211.88943756</v>
       </c>
     </row>
     <row r="1355">
@@ -15267,7 +15267,7 @@
         <v>5344168.41607119</v>
       </c>
       <c r="C1355" t="n">
-        <v>10575672.56521415</v>
+        <v>10571198.56979656</v>
       </c>
     </row>
     <row r="1356">
@@ -15278,7 +15278,7 @@
         <v>5342142.24333075</v>
       </c>
       <c r="C1356" t="n">
-        <v>10580216.2443566</v>
+        <v>10575715.24886503</v>
       </c>
     </row>
     <row r="1357">
@@ -15289,7 +15289,7 @@
         <v>5373058.93218975</v>
       </c>
       <c r="C1357" t="n">
-        <v>10584807.92363093</v>
+        <v>10580291.92809826</v>
       </c>
     </row>
     <row r="1358">
@@ -15300,7 +15300,7 @@
         <v>5385524.10475298</v>
       </c>
       <c r="C1358" t="n">
-        <v>10589559.60334458</v>
+        <v>10585028.60777081</v>
       </c>
     </row>
     <row r="1359">
@@ -15311,7 +15311,7 @@
         <v>5379568.89545313</v>
       </c>
       <c r="C1359" t="n">
-        <v>10594176.2826876</v>
+        <v>10589635.28708643</v>
       </c>
     </row>
     <row r="1360">
@@ -15322,7 +15322,7 @@
         <v>5358907.18580023</v>
       </c>
       <c r="C1360" t="n">
-        <v>10599474.96390327</v>
+        <v>10594931.96829662</v>
       </c>
     </row>
     <row r="1361">
@@ -15333,7 +15333,7 @@
         <v>5354756.99271068</v>
       </c>
       <c r="C1361" t="n">
-        <v>10604290.31045842</v>
+        <v>10599735.31481889</v>
       </c>
     </row>
     <row r="1362">
@@ -15344,7 +15344,7 @@
         <v>5329940.58949466</v>
       </c>
       <c r="C1362" t="n">
-        <v>10608687.32253165</v>
+        <v>10604108.66016051</v>
       </c>
     </row>
     <row r="1363">
@@ -15355,7 +15355,7 @@
         <v>5307725.19699851</v>
       </c>
       <c r="C1363" t="n">
-        <v>10613899.1850277</v>
+        <v>10609315.52264286</v>
       </c>
     </row>
     <row r="1364">
@@ -15366,7 +15366,7 @@
         <v>5321892.88336825</v>
       </c>
       <c r="C1364" t="n">
-        <v>10618334.8407807</v>
+        <v>10613741.27737856</v>
       </c>
     </row>
     <row r="1365">
@@ -15377,7 +15377,7 @@
         <v>5325116.90606266</v>
       </c>
       <c r="C1365" t="n">
-        <v>10623013.73152553</v>
+        <v>10618394.75551231</v>
       </c>
     </row>
     <row r="1366">
@@ -15388,7 +15388,7 @@
         <v>5322595.68594911</v>
       </c>
       <c r="C1366" t="n">
-        <v>10627975.79136533</v>
+        <v>10623341.96382616</v>
       </c>
     </row>
     <row r="1367">
@@ -15399,7 +15399,7 @@
         <v>5347437.58566308</v>
       </c>
       <c r="C1367" t="n">
-        <v>10632421.34813566</v>
+        <v>10627787.52059649</v>
       </c>
     </row>
     <row r="1368">
@@ -15410,7 +15410,7 @@
         <v>5377537.73194016</v>
       </c>
       <c r="C1368" t="n">
-        <v>10637314.76092211</v>
+        <v>10632672.02246737</v>
       </c>
     </row>
     <row r="1369">
@@ -15421,7 +15421,7 @@
         <v>5385612.0707159</v>
       </c>
       <c r="C1369" t="n">
-        <v>10641775.82928622</v>
+        <v>10637124.17991591</v>
       </c>
     </row>
     <row r="1370">
@@ -15432,7 +15432,7 @@
         <v>5369881.67943374</v>
       </c>
       <c r="C1370" t="n">
-        <v>10646269.24097353</v>
+        <v>10641612.64109457</v>
       </c>
     </row>
     <row r="1371">
@@ -15443,7 +15443,7 @@
         <v>5368197.91360204</v>
       </c>
       <c r="C1371" t="n">
-        <v>10651348.13281746</v>
+        <v>10646675.36127691</v>
       </c>
     </row>
     <row r="1372">
@@ -15454,7 +15454,7 @@
         <v>5397988.45188957</v>
       </c>
       <c r="C1372" t="n">
-        <v>10656129.33407446</v>
+        <v>10651404.74721002</v>
       </c>
     </row>
     <row r="1373">
@@ -15465,7 +15465,7 @@
         <v>5382244.54356456</v>
       </c>
       <c r="C1373" t="n">
-        <v>10660724.39620609</v>
+        <v>10655979.01720532</v>
       </c>
     </row>
     <row r="1374">
@@ -15476,7 +15476,7 @@
         <v>5373385.94585081</v>
       </c>
       <c r="C1374" t="n">
-        <v>10665564.34349908</v>
+        <v>10660804.11297236</v>
       </c>
     </row>
     <row r="1375">
@@ -15487,7 +15487,7 @@
         <v>5358940.15081602</v>
       </c>
       <c r="C1375" t="n">
-        <v>10670043.23369438</v>
+        <v>10665266.17143825</v>
       </c>
     </row>
     <row r="1376">
@@ -15498,7 +15498,7 @@
         <v>5345704.25281978</v>
       </c>
       <c r="C1376" t="n">
-        <v>10674897.70247945</v>
+        <v>10670107.76890083</v>
       </c>
     </row>
     <row r="1377">
@@ -15509,7 +15509,7 @@
         <v>5325372.20119465</v>
       </c>
       <c r="C1377" t="n">
-        <v>10679689.46482153</v>
+        <v>10674886.65992042</v>
       </c>
     </row>
     <row r="1378">
@@ -15520,7 +15520,7 @@
         <v>5300339.9224435</v>
       </c>
       <c r="C1378" t="n">
-        <v>10684274.29590197</v>
+        <v>10679457.62957664</v>
       </c>
     </row>
     <row r="1379">
@@ -15531,7 +15531,7 @@
         <v>5310731.36137017</v>
       </c>
       <c r="C1379" t="n">
-        <v>10689359.78842416</v>
+        <v>10684530.25077634</v>
       </c>
     </row>
     <row r="1380">
@@ -15542,7 +15542,7 @@
         <v>5324369.59390576</v>
       </c>
       <c r="C1380" t="n">
-        <v>10693422.83589255</v>
+        <v>10688586.36753262</v>
       </c>
     </row>
     <row r="1381">
@@ -15553,7 +15553,7 @@
         <v>5369805.42838641</v>
       </c>
       <c r="C1381" t="n">
-        <v>10698146.94128309</v>
+        <v>10693302.55210932</v>
       </c>
     </row>
     <row r="1382">
@@ -15564,7 +15564,7 @@
         <v>5411461.37050847</v>
       </c>
       <c r="C1382" t="n">
-        <v>10703353.88628428</v>
+        <v>10698500.58619494</v>
       </c>
     </row>
     <row r="1383">
@@ -15575,7 +15575,7 @@
         <v>5400551.50228323</v>
       </c>
       <c r="C1383" t="n">
-        <v>10707664.12915145</v>
+        <v>10702810.82906211</v>
       </c>
     </row>
     <row r="1384">
@@ -15586,7 +15586,7 @@
         <v>5396596.24124932</v>
       </c>
       <c r="C1384" t="n">
-        <v>10712946.32188411</v>
+        <v>10708068.26925152</v>
       </c>
     </row>
     <row r="1385">
@@ -15597,7 +15597,7 @@
         <v>5403809.64793405</v>
       </c>
       <c r="C1385" t="n">
-        <v>10717663.3723901</v>
+        <v>10712761.13905521</v>
       </c>
     </row>
     <row r="1386">
@@ -15608,7 +15608,7 @@
         <v>5424741.41376551</v>
       </c>
       <c r="C1386" t="n">
-        <v>10722169.80571062</v>
+        <v>10717224.76599737</v>
       </c>
     </row>
     <row r="1387">
@@ -15619,7 +15619,7 @@
         <v>5436512.93439195</v>
       </c>
       <c r="C1387" t="n">
-        <v>10727151.68392138</v>
+        <v>10722185.07763585</v>
       </c>
     </row>
     <row r="1388">
@@ -15630,7 +15630,7 @@
         <v>5480103.00701937</v>
       </c>
       <c r="C1388" t="n">
-        <v>10731575.77214756</v>
+        <v>10726589.88665343</v>
       </c>
     </row>
     <row r="1389">
@@ -15641,7 +15641,7 @@
         <v>5477307.23931124</v>
       </c>
       <c r="C1389" t="n">
-        <v>10736000.18713998</v>
+        <v>10731014.30164585</v>
       </c>
     </row>
     <row r="1390">
@@ -15652,7 +15652,7 @@
         <v>5456503.09004516</v>
       </c>
       <c r="C1390" t="n">
-        <v>10740824.89078568</v>
+        <v>10735821.03314795</v>
       </c>
     </row>
     <row r="1391">
@@ -15663,7 +15663,7 @@
         <v>5443246.16413199</v>
       </c>
       <c r="C1391" t="n">
-        <v>10745255.84110292</v>
+        <v>10740232.37749039</v>
       </c>
     </row>
     <row r="1392">
@@ -15674,7 +15674,7 @@
         <v>5418418.96400852</v>
       </c>
       <c r="C1392" t="n">
-        <v>10749680.90962752</v>
+        <v>10744617.58053285</v>
       </c>
     </row>
     <row r="1393">
@@ -15685,7 +15685,7 @@
         <v>5395431.07429665</v>
       </c>
       <c r="C1393" t="n">
-        <v>10754079.51008636</v>
+        <v>10748983.17760073</v>
       </c>
     </row>
     <row r="1394">
@@ -15696,7 +15696,7 @@
         <v>5402340.02007531</v>
       </c>
       <c r="C1394" t="n">
-        <v>10759036.5540624</v>
+        <v>10753940.22157677</v>
       </c>
     </row>
     <row r="1395">
@@ -15707,7 +15707,7 @@
         <v>5419416.84053913</v>
       </c>
       <c r="C1395" t="n">
-        <v>10763829.23461586</v>
+        <v>10758697.93814179</v>
       </c>
     </row>
     <row r="1396">
@@ -15718,7 +15718,7 @@
         <v>5387513.60943663</v>
       </c>
       <c r="C1396" t="n">
-        <v>10768012.82288378</v>
+        <v>10762860.94013617</v>
       </c>
     </row>
     <row r="1397">
@@ -15729,7 +15729,7 @@
         <v>5405941.10722321</v>
       </c>
       <c r="C1397" t="n">
-        <v>10772938.49729998</v>
+        <v>10767768.96917505</v>
       </c>
     </row>
     <row r="1398">
@@ -15740,7 +15740,7 @@
         <v>5429040.80285767</v>
       </c>
       <c r="C1398" t="n">
-        <v>10777707.32391734</v>
+        <v>10772520.15041509</v>
       </c>
     </row>
     <row r="1399">
@@ -15751,7 +15751,7 @@
         <v>5453173.79841197</v>
       </c>
       <c r="C1399" t="n">
-        <v>10782502.61860072</v>
+        <v>10777300.74061737</v>
       </c>
     </row>
     <row r="1400">
@@ -15762,7 +15762,7 @@
         <v>5482226.00928176</v>
       </c>
       <c r="C1400" t="n">
-        <v>10787196.9425136</v>
+        <v>10781973.49795797</v>
       </c>
     </row>
     <row r="1401">
@@ -15773,7 +15773,7 @@
         <v>5569906.72453464</v>
       </c>
       <c r="C1401" t="n">
-        <v>10792117.0619035</v>
+        <v>10786858.65335943</v>
       </c>
     </row>
     <row r="1402">
@@ -15784,7 +15784,7 @@
         <v>5592680.76827291</v>
       </c>
       <c r="C1402" t="n">
-        <v>10796375.15287584</v>
+        <v>10791100.07925319</v>
       </c>
     </row>
     <row r="1403">
@@ -15795,7 +15795,7 @@
         <v>5593323.03524954</v>
       </c>
       <c r="C1403" t="n">
-        <v>10800928.64053608</v>
+        <v>10795632.32710735</v>
       </c>
     </row>
     <row r="1404">
@@ -15806,7 +15806,7 @@
         <v>5569155.75859495</v>
       </c>
       <c r="C1404" t="n">
-        <v>10805869.9997322</v>
+        <v>10800569.76510851</v>
       </c>
     </row>
     <row r="1405">
@@ -15817,7 +15817,7 @@
         <v>5537052.10228338</v>
       </c>
       <c r="C1405" t="n">
-        <v>10810291.8005946</v>
+        <v>10804977.84178855</v>
       </c>
     </row>
     <row r="1406">
@@ -15828,7 +15828,7 @@
         <v>5516357.04713029</v>
       </c>
       <c r="C1406" t="n">
-        <v>10814756.30106867</v>
+        <v>10809432.58780487</v>
       </c>
     </row>
     <row r="1407">
@@ -15839,7 +15839,7 @@
         <v>5494180.4777974</v>
       </c>
       <c r="C1407" t="n">
-        <v>10819702.76557659</v>
+        <v>10814356.72867816</v>
       </c>
     </row>
     <row r="1408">
@@ -15850,7 +15850,7 @@
         <v>5455170.65770333</v>
       </c>
       <c r="C1408" t="n">
-        <v>10824059.75671589</v>
+        <v>10818704.98448217</v>
       </c>
     </row>
     <row r="1409">
@@ -15861,7 +15861,7 @@
         <v>5423316.05705195</v>
       </c>
       <c r="C1409" t="n">
-        <v>10828324.54153788</v>
+        <v>10822956.18100482</v>
       </c>
     </row>
     <row r="1410">
@@ -15872,7 +15872,7 @@
         <v>5411436.88692225</v>
       </c>
       <c r="C1410" t="n">
-        <v>10832727.15053937</v>
+        <v>10827343.26052135</v>
       </c>
     </row>
     <row r="1411">
@@ -15883,7 +15883,7 @@
         <v>5543639.95522372</v>
       </c>
       <c r="C1411" t="n">
-        <v>10837700.46811513</v>
+        <v>10832270.63670399</v>
       </c>
     </row>
     <row r="1412">
@@ -15894,7 +15894,7 @@
         <v>5594722.05350032</v>
       </c>
       <c r="C1412" t="n">
-        <v>10842483.87303041</v>
+        <v>10837023.30618023</v>
       </c>
     </row>
     <row r="1413">
@@ -15905,7 +15905,7 @@
         <v>5596816.91389751</v>
       </c>
       <c r="C1413" t="n">
-        <v>10846276.30268326</v>
+        <v>10840811.85346184</v>
       </c>
     </row>
     <row r="1414">
@@ -15916,7 +15916,7 @@
         <v>5598877.49665704</v>
       </c>
       <c r="C1414" t="n">
-        <v>10851263.20855837</v>
+        <v>10845748.93557259</v>
       </c>
     </row>
     <row r="1415">
@@ -15927,7 +15927,7 @@
         <v>5580917.3981243</v>
       </c>
       <c r="C1415" t="n">
-        <v>10855472.34605903</v>
+        <v>10849938.66121705</v>
       </c>
     </row>
     <row r="1416">
@@ -15938,7 +15938,7 @@
         <v>5523199.20599709</v>
       </c>
       <c r="C1416" t="n">
-        <v>10860592.22314959</v>
+        <v>10855034.27348736</v>
       </c>
     </row>
     <row r="1417">
@@ -15949,7 +15949,7 @@
         <v>5547606.50961499</v>
       </c>
       <c r="C1417" t="n">
-        <v>10865253.65690133</v>
+        <v>10859680.17775414</v>
       </c>
     </row>
     <row r="1418">
@@ -15960,7 +15960,7 @@
         <v>5560687.47107253</v>
       </c>
       <c r="C1418" t="n">
-        <v>10870035.76769281</v>
+        <v>10864419.90599286</v>
       </c>
     </row>
     <row r="1419">
@@ -15971,7 +15971,7 @@
         <v>5568338.32668222</v>
       </c>
       <c r="C1419" t="n">
-        <v>10874599.17157038</v>
+        <v>10868952.57443139</v>
       </c>
     </row>
     <row r="1420">
@@ -15982,7 +15982,7 @@
         <v>5556367.90377125</v>
       </c>
       <c r="C1420" t="n">
-        <v>10878972.66278746</v>
+        <v>10873310.53616351</v>
       </c>
     </row>
     <row r="1421">
@@ -15993,7 +15993,7 @@
         <v>5561882.97854407</v>
       </c>
       <c r="C1421" t="n">
-        <v>10883676.802623</v>
+        <v>10878004.97007095</v>
       </c>
     </row>
     <row r="1422">
@@ -16004,7 +16004,7 @@
         <v>5589659.30910242</v>
       </c>
       <c r="C1422" t="n">
-        <v>10888337.91284382</v>
+        <v>10882657.34495648</v>
       </c>
     </row>
     <row r="1423">
@@ -16015,7 +16015,7 @@
         <v>5593508.97257793</v>
       </c>
       <c r="C1423" t="n">
-        <v>10892946.61105269</v>
+        <v>10887251.4842732</v>
       </c>
     </row>
     <row r="1424">
@@ -16026,7 +16026,7 @@
         <v>5583034.72419128</v>
       </c>
       <c r="C1424" t="n">
-        <v>10897894.04615342</v>
+        <v>10892159.4485996</v>
       </c>
     </row>
     <row r="1425">
@@ -16037,7 +16037,7 @@
         <v>5568554.90114258</v>
       </c>
       <c r="C1425" t="n">
-        <v>10902507.59732641</v>
+        <v>10896772.99977259</v>
       </c>
     </row>
     <row r="1426">
@@ -16048,7 +16048,7 @@
         <v>5555617.43624149</v>
       </c>
       <c r="C1426" t="n">
-        <v>10906813.79410844</v>
+        <v>10901069.49062652</v>
       </c>
     </row>
     <row r="1427">
@@ -16059,7 +16059,7 @@
         <v>5553471.8801861</v>
       </c>
       <c r="C1427" t="n">
-        <v>10911428.9629361</v>
+        <v>10905679.80649013</v>
       </c>
     </row>
     <row r="1428">
@@ -16070,7 +16070,7 @@
         <v>5568829.36166208</v>
       </c>
       <c r="C1428" t="n">
-        <v>10915851.2624767</v>
+        <v>10910069.91310079</v>
       </c>
     </row>
     <row r="1429">
@@ -16081,7 +16081,7 @@
         <v>5605007.67584259</v>
       </c>
       <c r="C1429" t="n">
-        <v>10920838.76415847</v>
+        <v>10915041.39839951</v>
       </c>
     </row>
     <row r="1430">
@@ -16092,7 +16092,7 @@
         <v>5617252.66685426</v>
       </c>
       <c r="C1430" t="n">
-        <v>10925098.16106673</v>
+        <v>10919282.53663115</v>
       </c>
     </row>
     <row r="1431">
@@ -16103,7 +16103,7 @@
         <v>5634735.52518809</v>
       </c>
       <c r="C1431" t="n">
-        <v>10930030.88671837</v>
+        <v>10924151.51707835</v>
       </c>
     </row>
     <row r="1432">
@@ -16114,7 +16114,7 @@
         <v>5636993.23524037</v>
       </c>
       <c r="C1432" t="n">
-        <v>10934453.01007843</v>
+        <v>10928543.20931066</v>
       </c>
     </row>
     <row r="1433">
@@ -16125,7 +16125,7 @@
         <v>5651388.46686761</v>
       </c>
       <c r="C1433" t="n">
-        <v>10939211.47748257</v>
+        <v>10933280.85541685</v>
       </c>
     </row>
     <row r="1434">
@@ -16136,7 +16136,7 @@
         <v>5663801.21301015</v>
       </c>
       <c r="C1434" t="n">
-        <v>10943511.87633148</v>
+        <v>10937560.43296781</v>
       </c>
     </row>
     <row r="1435">
@@ -16147,7 +16147,7 @@
         <v>5656526.43950282</v>
       </c>
       <c r="C1435" t="n">
-        <v>10948007.35472593</v>
+        <v>10942048.22349842</v>
       </c>
     </row>
     <row r="1436">
@@ -16158,7 +16158,7 @@
         <v>5653000.70601061</v>
       </c>
       <c r="C1436" t="n">
-        <v>10952958.01872658</v>
+        <v>10946949.23671172</v>
       </c>
     </row>
     <row r="1437">
@@ -16169,7 +16169,7 @@
         <v>5621414.41796862</v>
       </c>
       <c r="C1437" t="n">
-        <v>10957291.73165221</v>
+        <v>10951257.64375217</v>
       </c>
     </row>
     <row r="1438">
@@ -16180,7 +16180,7 @@
         <v>5606588.01022973</v>
       </c>
       <c r="C1438" t="n">
-        <v>10961486.42237296</v>
+        <v>10955437.91972822</v>
       </c>
     </row>
     <row r="1439">
@@ -16191,7 +16191,7 @@
         <v>5645022.95382275</v>
       </c>
       <c r="C1439" t="n">
-        <v>10965969.40798864</v>
+        <v>10959916.100429</v>
       </c>
     </row>
     <row r="1440">
@@ -16202,7 +16202,7 @@
         <v>5642889.33786943</v>
       </c>
       <c r="C1440" t="n">
-        <v>10970636.58200938</v>
+        <v>10964573.66461994</v>
       </c>
     </row>
     <row r="1441">
@@ -16213,7 +16213,7 @@
         <v>5633563.93947011</v>
       </c>
       <c r="C1441" t="n">
-        <v>10975108.35615691</v>
+        <v>10969035.82893767</v>
       </c>
     </row>
     <row r="1442">
@@ -16224,7 +16224,7 @@
         <v>5662290.05491965</v>
       </c>
       <c r="C1442" t="n">
-        <v>10979655.40730476</v>
+        <v>10973552.44895777</v>
       </c>
     </row>
     <row r="1443">
@@ -16235,7 +16235,7 @@
         <v>5676711.69610592</v>
       </c>
       <c r="C1443" t="n">
-        <v>10984583.64836923</v>
+        <v>10978459.86872429</v>
       </c>
     </row>
     <row r="1444">
@@ -16246,7 +16246,7 @@
         <v>5698410.23429545</v>
       </c>
       <c r="C1444" t="n">
-        <v>10988731.89157915</v>
+        <v>10982598.50210441</v>
       </c>
     </row>
     <row r="1445">
@@ -16257,7 +16257,7 @@
         <v>5694575.28683532</v>
       </c>
       <c r="C1445" t="n">
-        <v>10993351.01645074</v>
+        <v>10987192.00076315</v>
       </c>
     </row>
     <row r="1446">
@@ -16268,7 +16268,7 @@
         <v>5686659.13407755</v>
       </c>
       <c r="C1446" t="n">
-        <v>10998426.60823927</v>
+        <v>10992246.77125373</v>
       </c>
     </row>
     <row r="1447">
@@ -16279,7 +16279,7 @@
         <v>5659639.04335323</v>
       </c>
       <c r="C1447" t="n">
-        <v>11002312.18276717</v>
+        <v>10996122.73595183</v>
       </c>
     </row>
     <row r="1448">
@@ -16290,7 +16290,7 @@
         <v>5639658.75611068</v>
       </c>
       <c r="C1448" t="n">
-        <v>11007120.94161403</v>
+        <v>11000908.43120717</v>
       </c>
     </row>
     <row r="1449">
@@ -16301,7 +16301,7 @@
         <v>5632420.17344385</v>
       </c>
       <c r="C1449" t="n">
-        <v>11011364.17942031</v>
+        <v>11005126.61368155</v>
       </c>
     </row>
     <row r="1450">
@@ -16312,7 +16312,7 @@
         <v>5621021.80135281</v>
       </c>
       <c r="C1450" t="n">
-        <v>11016130.08413791</v>
+        <v>11009874.44050145</v>
       </c>
     </row>
     <row r="1451">
@@ -16323,7 +16323,7 @@
         <v>5625546.33412393</v>
       </c>
       <c r="C1451" t="n">
-        <v>11020852.22131355</v>
+        <v>11014574.69390619</v>
       </c>
     </row>
     <row r="1452">
@@ -16334,7 +16334,7 @@
         <v>5601236.20486107</v>
       </c>
       <c r="C1452" t="n">
-        <v>11025013.30934806</v>
+        <v>11018726.2672577</v>
       </c>
     </row>
     <row r="1453">
@@ -16345,7 +16345,7 @@
         <v>5605349.52652748</v>
       </c>
       <c r="C1453" t="n">
-        <v>11029023.74823491</v>
+        <v>11022697.06163204</v>
       </c>
     </row>
     <row r="1454">
@@ -16356,7 +16356,7 @@
         <v>5629128.84018825</v>
       </c>
       <c r="C1454" t="n">
-        <v>11033881.62822143</v>
+        <v>11027536.86372086</v>
       </c>
     </row>
     <row r="1455">
@@ -16367,7 +16367,7 @@
         <v>5642927.79275583</v>
       </c>
       <c r="C1455" t="n">
-        <v>11038543.82289418</v>
+        <v>11032170.51434461</v>
       </c>
     </row>
     <row r="1456">
@@ -16378,7 +16378,7 @@
         <v>5637988.81374067</v>
       </c>
       <c r="C1456" t="n">
-        <v>11043247.24785997</v>
+        <v>11036829.53745639</v>
       </c>
     </row>
     <row r="1457">
@@ -16389,7 +16389,7 @@
         <v>5616320.15088444</v>
       </c>
       <c r="C1457" t="n">
-        <v>11047075.95630149</v>
+        <v>11040654.44002471</v>
       </c>
     </row>
     <row r="1458">
@@ -16400,7 +16400,7 @@
         <v>5606026.88001003</v>
       </c>
       <c r="C1458" t="n">
-        <v>11051880.87121942</v>
+        <v>11045449.84025964</v>
       </c>
     </row>
     <row r="1459">
@@ -16411,7 +16411,7 @@
         <v>5601013.3959952</v>
       </c>
       <c r="C1459" t="n">
-        <v>11056551.629107</v>
+        <v>11050102.52024952</v>
       </c>
     </row>
     <row r="1460">
@@ -16422,7 +16422,7 @@
         <v>5597706.62124892</v>
       </c>
       <c r="C1460" t="n">
-        <v>11061044.1452663</v>
+        <v>11054590.27906732</v>
       </c>
     </row>
     <row r="1461">
@@ -16433,7 +16433,7 @@
         <v>5593069.4979897</v>
       </c>
       <c r="C1461" t="n">
-        <v>11065545.22464025</v>
+        <v>11059078.03788507</v>
       </c>
     </row>
     <row r="1462">
@@ -16444,7 +16444,7 @@
         <v>5576325.48025166</v>
       </c>
       <c r="C1462" t="n">
-        <v>11069290.83818358</v>
+        <v>11062823.6514284</v>
       </c>
     </row>
     <row r="1463">
@@ -16455,7 +16455,7 @@
         <v>5579122.3598238</v>
       </c>
       <c r="C1463" t="n">
-        <v>11074446.84490438</v>
+        <v>11067952.0655685</v>
       </c>
     </row>
     <row r="1464">
@@ -16466,7 +16466,7 @@
         <v>5571444.97107064</v>
       </c>
       <c r="C1464" t="n">
-        <v>11079442.68779457</v>
+        <v>11072883.84292647</v>
       </c>
     </row>
     <row r="1465">
@@ -16477,7 +16477,7 @@
         <v>5558457.16631745</v>
       </c>
       <c r="C1465" t="n">
-        <v>11083817.85619668</v>
+        <v>11077238.39618207</v>
       </c>
     </row>
     <row r="1466">
@@ -16488,7 +16488,7 @@
         <v>5559393.5296438</v>
       </c>
       <c r="C1466" t="n">
-        <v>11087852.0817911</v>
+        <v>11081272.62177649</v>
       </c>
     </row>
     <row r="1467">
@@ -16499,7 +16499,7 @@
         <v>5562165.40415683</v>
       </c>
       <c r="C1467" t="n">
-        <v>11092504.76178093</v>
+        <v>11085890.41459531</v>
       </c>
     </row>
     <row r="1468">
@@ -16510,7 +16510,7 @@
         <v>5559477.31838647</v>
       </c>
       <c r="C1468" t="n">
-        <v>11097059.12337971</v>
+        <v>11090425.74682809</v>
       </c>
     </row>
     <row r="1469">
@@ -16521,7 +16521,7 @@
         <v>5547325.48823924</v>
       </c>
       <c r="C1469" t="n">
-        <v>11101174.22377972</v>
+        <v>11094507.5458376</v>
       </c>
     </row>
     <row r="1470">
@@ -16532,7 +16532,7 @@
         <v>5530185.86423432</v>
       </c>
       <c r="C1470" t="n">
-        <v>11105762.09715961</v>
+        <v>11099064.65507579</v>
       </c>
     </row>
     <row r="1471">
@@ -16543,7 +16543,7 @@
         <v>5519636.93753841</v>
       </c>
       <c r="C1471" t="n">
-        <v>11110626.20407933</v>
+        <v>11103900.50056091</v>
       </c>
     </row>
     <row r="1472">
@@ -16554,7 +16554,7 @@
         <v>5482545.20812731</v>
       </c>
       <c r="C1472" t="n">
-        <v>11115300.33135507</v>
+        <v>11108544.79632232</v>
       </c>
     </row>
     <row r="1473">
@@ -16565,7 +16565,7 @@
         <v>5467992.14204449</v>
       </c>
       <c r="C1473" t="n">
-        <v>11119415.51025658</v>
+        <v>11112639.5641877</v>
       </c>
     </row>
     <row r="1474">
@@ -16576,7 +16576,7 @@
         <v>5475129.62130036</v>
       </c>
       <c r="C1474" t="n">
-        <v>11123984.44219221</v>
+        <v>11117189.65516693</v>
       </c>
     </row>
     <row r="1475">
@@ -16587,7 +16587,7 @@
         <v>5512653.27838875</v>
       </c>
       <c r="C1475" t="n">
-        <v>11128131.02268777</v>
+        <v>11121322.10494519</v>
       </c>
     </row>
     <row r="1476">
@@ -16598,7 +16598,7 @@
         <v>5462650.51784366</v>
       </c>
       <c r="C1476" t="n">
-        <v>11132893.07442691</v>
+        <v>11126054.32517</v>
       </c>
     </row>
     <row r="1477">
@@ -16609,7 +16609,7 @@
         <v>5413496.52493538</v>
       </c>
       <c r="C1477" t="n">
-        <v>11137454.7839959</v>
+        <v>11130598.13583041</v>
       </c>
     </row>
     <row r="1478">
@@ -16620,7 +16620,7 @@
         <v>5437557.52922245</v>
       </c>
       <c r="C1478" t="n">
-        <v>11142215.89368712</v>
+        <v>11135314.65525809</v>
       </c>
     </row>
     <row r="1479">
@@ -16631,7 +16631,7 @@
         <v>5462289.68607728</v>
       </c>
       <c r="C1479" t="n">
-        <v>11146183.48509652</v>
+        <v>11139277.53642839</v>
       </c>
     </row>
     <row r="1480">
@@ -16642,7 +16642,7 @@
         <v>5473562.55213495</v>
       </c>
       <c r="C1480" t="n">
-        <v>11150570.28778658</v>
+        <v>11143639.21784322</v>
       </c>
     </row>
     <row r="1481">
@@ -16653,7 +16653,7 @@
         <v>5558873.52007511</v>
       </c>
       <c r="C1481" t="n">
-        <v>11155001.05270833</v>
+        <v>11148054.28196794</v>
       </c>
     </row>
     <row r="1482">
@@ -16664,7 +16664,7 @@
         <v>5561899.81220137</v>
       </c>
       <c r="C1482" t="n">
-        <v>11160191.73620626</v>
+        <v>11153210.42371244</v>
       </c>
     </row>
     <row r="1483">
@@ -16675,7 +16675,7 @@
         <v>5541200.51321697</v>
       </c>
       <c r="C1483" t="n">
-        <v>11164394.83957103</v>
+        <v>11157408.81683811</v>
       </c>
     </row>
     <row r="1484">
@@ -16686,7 +16686,7 @@
         <v>5545973.04885262</v>
       </c>
       <c r="C1484" t="n">
-        <v>11168693.71779777</v>
+        <v>11161682.57378962</v>
       </c>
     </row>
     <row r="1485">
@@ -16697,7 +16697,7 @@
         <v>5549747.90376476</v>
       </c>
       <c r="C1485" t="n">
-        <v>11173126.05279919</v>
+        <v>11166091.35759554</v>
       </c>
     </row>
     <row r="1486">
@@ -16708,7 +16708,7 @@
         <v>5536730.25700185</v>
       </c>
       <c r="C1486" t="n">
-        <v>11177410.8003086</v>
+        <v>11170371.39486585</v>
       </c>
     </row>
     <row r="1487">
@@ -16719,7 +16719,7 @@
         <v>5612650.75108457</v>
       </c>
       <c r="C1487" t="n">
-        <v>11181625.52226329</v>
+        <v>11174550.9470352</v>
       </c>
     </row>
     <row r="1488">
@@ -16730,7 +16730,7 @@
         <v>5624813.42081252</v>
       </c>
       <c r="C1488" t="n">
-        <v>11186594.82452321</v>
+        <v>11179506.11857782</v>
       </c>
     </row>
     <row r="1489">
@@ -16741,7 +16741,7 @@
         <v>5610147.2869745</v>
       </c>
       <c r="C1489" t="n">
-        <v>11190832.46964152</v>
+        <v>11183679.39042837</v>
       </c>
     </row>
     <row r="1490">
@@ -16752,7 +16752,7 @@
         <v>5597386.57938445</v>
       </c>
       <c r="C1490" t="n">
-        <v>11195418.67245388</v>
+        <v>11188185.51917594</v>
       </c>
     </row>
     <row r="1491">
@@ -16763,7 +16763,7 @@
         <v>5568809.83768937</v>
       </c>
       <c r="C1491" t="n">
-        <v>11200717.69145146</v>
+        <v>11193479.82793442</v>
       </c>
     </row>
     <row r="1492">
@@ -16774,7 +16774,7 @@
         <v>5529485.54871969</v>
       </c>
       <c r="C1492" t="n">
-        <v>11205071.77118765</v>
+        <v>11197815.25325841</v>
       </c>
     </row>
     <row r="1493">
@@ -16785,7 +16785,7 @@
         <v>5518540.17952448</v>
       </c>
       <c r="C1493" t="n">
-        <v>11209711.74533619</v>
+        <v>11202416.67495493</v>
       </c>
     </row>
     <row r="1494">
@@ -16796,7 +16796,7 @@
         <v>5578681.56549883</v>
       </c>
       <c r="C1494" t="n">
-        <v>11213765.97093868</v>
+        <v>11206427.37359555</v>
       </c>
     </row>
     <row r="1495">
@@ -16807,7 +16807,7 @@
         <v>5700223.21924713</v>
       </c>
       <c r="C1495" t="n">
-        <v>11218413.09594517</v>
+        <v>11211019.46808584</v>
       </c>
     </row>
     <row r="1496">
@@ -16818,7 +16818,7 @@
         <v>5704051.7092439</v>
       </c>
       <c r="C1496" t="n">
-        <v>11222672.52008294</v>
+        <v>11215269.56501751</v>
       </c>
     </row>
     <row r="1497">
@@ -16829,7 +16829,7 @@
         <v>5740205.03628699</v>
       </c>
       <c r="C1497" t="n">
-        <v>11226678.55512011</v>
+        <v>11219261.60924553</v>
       </c>
     </row>
     <row r="1498">
@@ -16840,7 +16840,7 @@
         <v>5723901.04154595</v>
       </c>
       <c r="C1498" t="n">
-        <v>11231638.7633457</v>
+        <v>11224183.2650192</v>
       </c>
     </row>
     <row r="1499">
@@ -16851,7 +16851,7 @@
         <v>5695207.26983978</v>
       </c>
       <c r="C1499" t="n">
-        <v>11235970.93969109</v>
+        <v>11228473.77984394</v>
       </c>
     </row>
     <row r="1500">
@@ -16862,7 +16862,7 @@
         <v>5669910.87904918</v>
       </c>
       <c r="C1500" t="n">
-        <v>11240079.57399626</v>
+        <v>11232577.75054606</v>
       </c>
     </row>
     <row r="1501">
@@ -16873,7 +16873,7 @@
         <v>5644681.39426953</v>
       </c>
       <c r="C1501" t="n">
-        <v>11244548.86027215</v>
+        <v>11237042.3732189</v>
       </c>
     </row>
     <row r="1502">
@@ -16884,7 +16884,7 @@
         <v>5622524.06234348</v>
       </c>
       <c r="C1502" t="n">
-        <v>11249158.67645382</v>
+        <v>11241628.24957151</v>
       </c>
     </row>
     <row r="1503">
@@ -16895,7 +16895,7 @@
         <v>5622059.52408832</v>
       </c>
       <c r="C1503" t="n">
-        <v>11253687.65684898</v>
+        <v>11246139.50827508</v>
       </c>
     </row>
     <row r="1504">
@@ -16906,7 +16906,7 @@
         <v>5647845.84916246</v>
       </c>
       <c r="C1504" t="n">
-        <v>11257442.47913445</v>
+        <v>11249876.60886896</v>
       </c>
     </row>
     <row r="1505">
@@ -16917,7 +16917,7 @@
         <v>5677591.35303067</v>
       </c>
       <c r="C1505" t="n">
-        <v>11262148.05463261</v>
+        <v>11254568.19355797</v>
       </c>
     </row>
     <row r="1506">
@@ -16928,7 +16928,7 @@
         <v>5672943.97984627</v>
       </c>
       <c r="C1506" t="n">
-        <v>11266756.93809369</v>
+        <v>11259169.61525417</v>
       </c>
     </row>
     <row r="1507">
@@ -16939,7 +16939,7 @@
         <v>5666038.87328654</v>
       </c>
       <c r="C1507" t="n">
-        <v>11270947.96271982</v>
+        <v>11263335.76733063</v>
       </c>
     </row>
     <row r="1508">
@@ -16950,7 +16950,7 @@
         <v>5685061.15503245</v>
       </c>
       <c r="C1508" t="n">
-        <v>11275885.16383722</v>
+        <v>11268238.76869226</v>
       </c>
     </row>
     <row r="1509">
@@ -16961,7 +16961,7 @@
         <v>5654410.06549394</v>
       </c>
       <c r="C1509" t="n">
-        <v>11279876.27534511</v>
+        <v>11272212.15850856</v>
       </c>
     </row>
     <row r="1510">
@@ -16972,7 +16972,7 @@
         <v>5663847.51933694</v>
       </c>
       <c r="C1510" t="n">
-        <v>11283883.86491711</v>
+        <v>11276210.42087446</v>
       </c>
     </row>
     <row r="1511">
@@ -16983,7 +16983,7 @@
         <v>5683441.73376663</v>
       </c>
       <c r="C1511" t="n">
-        <v>11288673.3852706</v>
+        <v>11280967.2960066</v>
       </c>
     </row>
     <row r="1512">
@@ -16994,7 +16994,7 @@
         <v>5707479.22935649</v>
       </c>
       <c r="C1512" t="n">
-        <v>11293242.16174542</v>
+        <v>11285506.5363287</v>
       </c>
     </row>
     <row r="1513">
@@ -17005,7 +17005,7 @@
         <v>5699701.53972109</v>
       </c>
       <c r="C1513" t="n">
-        <v>11297324.36896475</v>
+        <v>11289539.04462299</v>
       </c>
     </row>
     <row r="1514">
@@ -17016,7 +17016,7 @@
         <v>5683204.18323673</v>
       </c>
       <c r="C1514" t="n">
-        <v>11301235.33113956</v>
+        <v>11293445.38936905</v>
       </c>
     </row>
     <row r="1515">
@@ -17027,7 +17027,7 @@
         <v>5663167.19184859</v>
       </c>
       <c r="C1515" t="n">
-        <v>11305848.14248861</v>
+        <v>11298053.58328935</v>
       </c>
     </row>
     <row r="1516">
@@ -17038,7 +17038,7 @@
         <v>5655703.45576361</v>
       </c>
       <c r="C1516" t="n">
-        <v>11310253.16954251</v>
+        <v>11302415.51434149</v>
       </c>
     </row>
     <row r="1517">
@@ -17049,7 +17049,7 @@
         <v>5663105.42060261</v>
       </c>
       <c r="C1517" t="n">
-        <v>11314905.99860762</v>
+        <v>11307039.09969109</v>
       </c>
     </row>
     <row r="1518">
@@ -17060,7 +17060,7 @@
         <v>5650753.89575811</v>
       </c>
       <c r="C1518" t="n">
-        <v>11318665.20128986</v>
+        <v>11310760.74728607</v>
       </c>
     </row>
     <row r="1519">
@@ -17071,7 +17071,7 @@
         <v>5633905.19888186</v>
       </c>
       <c r="C1519" t="n">
-        <v>11323829.64146351</v>
+        <v>11315864.54522855</v>
       </c>
     </row>
     <row r="1520">
@@ -17082,7 +17082,7 @@
         <v>5637401.85683029</v>
       </c>
       <c r="C1520" t="n">
-        <v>11328246.05817514</v>
+        <v>11320248.02428167</v>
       </c>
     </row>
     <row r="1521">
@@ -17093,7 +17093,7 @@
         <v>5632108.80917411</v>
       </c>
       <c r="C1521" t="n">
-        <v>11332648.00694334</v>
+        <v>11324649.97304987</v>
       </c>
     </row>
     <row r="1522">
@@ -17104,7 +17104,7 @@
         <v>5662347.22741412</v>
       </c>
       <c r="C1522" t="n">
-        <v>11336647.31592194</v>
+        <v>11328645.58808547</v>
       </c>
     </row>
     <row r="1523">
@@ -17115,7 +17115,7 @@
         <v>5684422.3718845</v>
       </c>
       <c r="C1523" t="n">
-        <v>11340676.792102</v>
+        <v>11332675.06426553</v>
       </c>
     </row>
     <row r="1524">
@@ -17126,7 +17126,7 @@
         <v>5693279.75218087</v>
       </c>
       <c r="C1524" t="n">
-        <v>11345351.16916793</v>
+        <v>11337344.82390271</v>
       </c>
     </row>
     <row r="1525">
@@ -17137,7 +17137,7 @@
         <v>5697283.20533858</v>
       </c>
       <c r="C1525" t="n">
-        <v>11350071.72052168</v>
+        <v>11342060.75782771</v>
       </c>
     </row>
     <row r="1526">
@@ -17148,7 +17148,7 @@
         <v>5686765.26354537</v>
       </c>
       <c r="C1526" t="n">
-        <v>11354265.88499477</v>
+        <v>11346250.30487205</v>
       </c>
     </row>
     <row r="1527">
@@ -17159,7 +17159,7 @@
         <v>5669788.28398788</v>
       </c>
       <c r="C1527" t="n">
-        <v>11358507.76289869</v>
+        <v>11350476.79134671</v>
       </c>
     </row>
     <row r="1528">
@@ -17170,7 +17170,7 @@
         <v>5631605.41107969</v>
       </c>
       <c r="C1528" t="n">
-        <v>11362749.64080261</v>
+        <v>11354718.66925063</v>
       </c>
     </row>
     <row r="1529">
@@ -17181,7 +17181,7 @@
         <v>5636555.1798928</v>
       </c>
       <c r="C1529" t="n">
-        <v>11367533.29701653</v>
+        <v>11359502.32546455</v>
       </c>
     </row>
     <row r="1530">
@@ -17192,7 +17192,7 @@
         <v>5631273.94169585</v>
       </c>
       <c r="C1530" t="n">
-        <v>11371676.66977325</v>
+        <v>11363645.69822127</v>
       </c>
     </row>
     <row r="1531">
@@ -17203,7 +17203,7 @@
         <v>5643116.02053956</v>
       </c>
       <c r="C1531" t="n">
-        <v>11375404.47393995</v>
+        <v>11367373.50238797</v>
       </c>
     </row>
     <row r="1532">
@@ -17214,7 +17214,7 @@
         <v>5661030.89925988</v>
       </c>
       <c r="C1532" t="n">
-        <v>11380360.51416155</v>
+        <v>11372329.54260957</v>
       </c>
     </row>
     <row r="1533">
@@ -17225,7 +17225,7 @@
         <v>5667191.93036487</v>
       </c>
       <c r="C1533" t="n">
-        <v>11384617.78349477</v>
+        <v>11376586.81194279</v>
       </c>
     </row>
     <row r="1534">
@@ -17236,7 +17236,7 @@
         <v>5638709.94649564</v>
       </c>
       <c r="C1534" t="n">
-        <v>11388828.87854021</v>
+        <v>11380797.90698823</v>
       </c>
     </row>
     <row r="1535">
@@ -17247,7 +17247,7 @@
         <v>5644040.42792939</v>
       </c>
       <c r="C1535" t="n">
-        <v>11392978.9412395</v>
+        <v>11384947.96968752</v>
       </c>
     </row>
     <row r="1536">
@@ -17258,7 +17258,7 @@
         <v>5663783.89923219</v>
       </c>
       <c r="C1536" t="n">
-        <v>11397526.27044424</v>
+        <v>11389495.29889226</v>
       </c>
     </row>
     <row r="1537">
@@ -17269,7 +17269,7 @@
         <v>5663362.14767699</v>
       </c>
       <c r="C1537" t="n">
-        <v>11401934.92439506</v>
+        <v>11393899.38113143</v>
       </c>
     </row>
     <row r="1538">
@@ -17280,7 +17280,7 @@
         <v>5662791.81158129</v>
       </c>
       <c r="C1538" t="n">
-        <v>11406578.2595448</v>
+        <v>11398538.14456952</v>
       </c>
     </row>
     <row r="1539">
@@ -17291,7 +17291,7 @@
         <v>5662510.46679789</v>
       </c>
       <c r="C1539" t="n">
-        <v>11410508.4076745</v>
+        <v>11402463.72098757</v>
       </c>
     </row>
     <row r="1540">
@@ -17302,7 +17302,7 @@
         <v>5668836.62572857</v>
       </c>
       <c r="C1540" t="n">
-        <v>11414872.86841258</v>
+        <v>11406828.18172565</v>
       </c>
     </row>
     <row r="1541">
@@ -17313,7 +17313,7 @@
         <v>5671921.43192751</v>
       </c>
       <c r="C1541" t="n">
-        <v>11419273.90284399</v>
+        <v>11411229.21615706</v>
       </c>
     </row>
     <row r="1542">
@@ -17324,7 +17324,7 @@
         <v>5667846.88168137</v>
       </c>
       <c r="C1542" t="n">
-        <v>11423763.32370097</v>
+        <v>11415718.63701404</v>
       </c>
     </row>
     <row r="1543">
@@ -17335,7 +17335,7 @@
         <v>5657329.3005783</v>
       </c>
       <c r="C1543" t="n">
-        <v>11427487.74480567</v>
+        <v>11419443.05811874</v>
       </c>
     </row>
     <row r="1544">
@@ -17346,7 +17346,7 @@
         <v>5645460.94780202</v>
       </c>
       <c r="C1544" t="n">
-        <v>11432781.78691598</v>
+        <v>11424737.10022905</v>
       </c>
     </row>
     <row r="1545">
@@ -17357,7 +17357,7 @@
         <v>5636701.29955162</v>
       </c>
       <c r="C1545" t="n">
-        <v>11436663.17012121</v>
+        <v>11428613.91172263</v>
       </c>
     </row>
     <row r="1546">
@@ -17368,7 +17368,7 @@
         <v>5648582.40156732</v>
       </c>
       <c r="C1546" t="n">
-        <v>11441091.63482258</v>
+        <v>11433042.376424</v>
       </c>
     </row>
     <row r="1547">
@@ -17379,7 +17379,7 @@
         <v>5643645.21567756</v>
       </c>
       <c r="C1547" t="n">
-        <v>11445443.9043295</v>
+        <v>11437394.64593092</v>
       </c>
     </row>
     <row r="1548">
@@ -17390,7 +17390,7 @@
         <v>5658603.3190933</v>
       </c>
       <c r="C1548" t="n">
-        <v>11449767.21966254</v>
+        <v>11441713.38955231</v>
       </c>
     </row>
     <row r="1549">
@@ -17401,7 +17401,7 @@
         <v>5657799.82235417</v>
       </c>
       <c r="C1549" t="n">
-        <v>11453878.71235503</v>
+        <v>11445824.8822448</v>
       </c>
     </row>
     <row r="1550">
@@ -17412,7 +17412,1855 @@
         <v>5655901.87217389</v>
       </c>
       <c r="C1550" t="n">
-        <v>11458206.59939977</v>
+        <v>11450152.76928954</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>5655886.189409</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>11454684.8594554</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>5633367.30091565</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>11459070.65484792</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>5611410.76440944</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>11463700.27486267</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>5646719.37846469</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>11467906.24959627</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>5667808.38300548</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>11472063.45940543</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>5674458.60114268</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>11476321.02055101</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>5671877.08000183</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>11480150.3948813</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>5676848.43956784</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>11485195.87469238</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>5655778.74045979</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>11489800.78030942</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>5656983.52591631</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>11493771.98331862</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>5649610.97101984</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>11497598.34001746</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>5624299.64371769</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>11502173.06931984</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>5627671.85187514</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>11506328.34784845</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>5656137.06433375</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>11509849.9237692</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>5664689.66575757</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>11514445.77649185</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>5632557.77801828</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>11519587.82050977</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>5663281.69614947</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>11523537.9000987</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>5716188.84582006</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>11528076.4178235</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>5759232.0948972</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>11532349.38397928</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>5774734.25416778</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>11536743.0553937</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>5790028.98570599</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>11540753.48761199</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>5769430.60806174</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>11545403.65770104</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>5756603.8141914</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>11549890.87569093</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>5736274.99894238</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>11553605.58002554</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>5714785.54455338</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>11557591.87119209</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>5667903.36430375</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>11562450.25785231</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>5647153.84230808</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>11566705.49168509</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="n">
+        <v>1576</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>5730821.19746179</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>11570786.76353691</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>5778058.44635563</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>11575145.89650314</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>5816704.22812398</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>11579764.9640602</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>5851130.27197847</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>11583039.54235413</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>5847377.36044282</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>11588229.27090944</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>5823574.43122436</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>11592624.25692262</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>5802624.40941775</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>11596224.5003928</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="n">
+        <v>1583</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>5785289.23001308</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>11600015.96011426</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="n">
+        <v>1584</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>5776699.11906762</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>11604168.93805959</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="n">
+        <v>1585</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>5757574.44511029</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>11608590.8138578</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="n">
+        <v>1586</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>5733716.91953285</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>11612576.47758394</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>5749274.39123943</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>11616860.91670192</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>5784977.12184245</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>11621055.72320219</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>5787060.72959719</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>11625029.43591276</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>5800723.10525275</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>11629203.32813582</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>5784547.70428621</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>11633664.04473494</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>5776110.64774978</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>11638020.18994696</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="n">
+        <v>1593</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>5777276.80718775</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>11641704.09052749</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>5796509.85267148</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>11646212.61118924</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="n">
+        <v>1595</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>5795912.56041485</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>11650697.22981965</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>5791807.98185882</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>11654467.77526384</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>5784669.1918428</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>11658117.4350076</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>5791834.01233896</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>11661912.76994251</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>5787056.55130787</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>11666849.95934746</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>5771131.97311339</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>11670473.72029483</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="n">
+        <v>1601</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>5756257.89645166</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>11675292.58281179</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="1" t="n">
+        <v>1602</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>5718450.04982105</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>11679786.04638658</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>5725111.64260895</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>11684409.66953822</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="1" t="n">
+        <v>1604</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>5756095.47519658</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>11688080.76124088</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>5783284.73211211</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>11692438.14889433</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>5795589.61561124</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>11696603.25535469</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="1" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>5790208.6748315</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>11700860.06515332</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>5836042.07256363</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>11705306.19797287</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>5844027.82592574</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>11709492.01163866</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>5838885.35825834</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>11713367.21722324</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>5839405.16283806</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>11717680.2322937</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="1" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>5836134.68094005</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>11722081.99253022</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>5835405.99503636</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>11725767.87509388</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>5838693.30291618</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>11730228.79877444</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="1" t="n">
+        <v>1615</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>5816689.80349945</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>11734575.83282522</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="1" t="n">
+        <v>1616</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>5788677.23272585</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>11738794.18638521</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="1" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>5769199.90899629</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>11743045.07983946</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="1" t="n">
+        <v>1618</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>5788035.81461185</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>11747448.08485115</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="1" t="n">
+        <v>1619</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>5826816.08163147</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>11751961.49412114</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>5844150.63239566</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>11755843.72902512</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="1" t="n">
+        <v>1621</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>5860037.81458681</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>11759911.94802315</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="1" t="n">
+        <v>1622</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>5866271.36344756</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>11764097.3223559</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>5836254.25757906</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>11768074.74596957</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="1" t="n">
+        <v>1624</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>5839324.6741304</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>11772563.25973098</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="1" t="n">
+        <v>1625</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>5854388.37528806</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>11776665.16088775</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="1" t="n">
+        <v>1626</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>5860690.52249227</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>11780932.54395484</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="1" t="n">
+        <v>1627</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>5841766.53333206</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>11785047.62508682</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="1" t="n">
+        <v>1628</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>5832245.11517705</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>11789561.03435682</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="1" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>5827390.36297442</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>11793116.69876556</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="1" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>5812700.15958166</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>11796862.74059316</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>5814305.75687748</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>11801683.68261678</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>5808620.76753631</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>11805901.27466653</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="1" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>5862838.40309773</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>11810121.79559971</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="1" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>5871103.82243842</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>11814105.07698014</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="1" t="n">
+        <v>1635</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>5856833.64360841</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>11818028.31625149</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>5849422.7874348</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>11822468.50343733</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="1" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>5858593.77433307</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>11826709.52655406</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>5867717.48792135</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>11830830.46545274</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>5874685.06751225</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>11834500.35631276</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="1" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>5881297.15025062</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>11839347.55677977</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="1" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>5860935.17634317</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>11843343.59764272</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="1" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>5839291.77401732</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>11847000.35201727</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="1" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>5846509.31925065</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>11851425.57578863</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="1" t="n">
+        <v>1644</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>5853417.62395416</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>11856049.4416492</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>5855497.50762514</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>11860048.38239661</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>5878724.43472764</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>11864293.81332792</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="1" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>5881324.20423427</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>11868118.76100446</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="1" t="n">
+        <v>1648</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>5873111.81654662</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>11871801.61433973</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="1" t="n">
+        <v>1649</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>5879326.91515067</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>11875269.87622083</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="1" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>5925831.71603323</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>11880022.78694229</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="1" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>5939042.27207692</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>11884735.09928074</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="1" t="n">
+        <v>1652</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>5928415.98562116</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>11888938.48188656</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="1" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>5979349.30221174</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>11893140.41455009</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="1" t="n">
+        <v>1654</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>6027843.19124095</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>11897150.95483564</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="1" t="n">
+        <v>1655</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>6032405.5372004</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>11901741.47202432</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="1" t="n">
+        <v>1656</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>5995819.56082885</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>11905299.63032541</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="1" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>5966930.9484528</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>11909634.95767669</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="1" t="n">
+        <v>1658</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>5933160.98145453</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>11913973.1849125</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="1" t="n">
+        <v>1659</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>5905702.34111012</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>11917998.22462061</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="1" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>5981636.40140349</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>11922243.65555195</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="1" t="n">
+        <v>1661</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>6073364.94793128</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>11926118.31758125</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="1" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>6084352.25163168</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>11930502.59842237</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="1" t="n">
+        <v>1663</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>6077569.092921</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>11934355.71229845</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="1" t="n">
+        <v>1664</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>6073193.47054196</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>11938777.31838575</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="1" t="n">
+        <v>1665</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>6074102.31244945</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>11942706.51834058</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="1" t="n">
+        <v>1666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>6071950.68128748</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>11947132.43118703</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="1" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>6073938.88278414</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>11951192.26950357</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="1" t="n">
+        <v>1668</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>6086652.8268692</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>11955097.06448972</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>6081543.82707118</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>11959117.28062182</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>6076951.12941257</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>11963220.18653012</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="1" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>6071120.58473064</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>11967324.52802481</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="1" t="n">
+        <v>1672</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>6089167.59537817</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>11971487.72856158</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="1" t="n">
+        <v>1673</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>6085439.34922013</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>11975650.92909835</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>6096242.84495894</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>11979633.24574971</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>6111532.94134943</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>11983823.72242789</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="1" t="n">
+        <v>1676</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>6102078.79958927</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>11988256.81320632</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="1" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>6075117.069588</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>11991930.47878341</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="1" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>6102404.65291137</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>11996151.10277586</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="1" t="n">
+        <v>1679</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>6102371.5096445</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>12000067.3824532</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="1" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>6096619.41683422</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>12004290.87761844</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="1" t="n">
+        <v>1681</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>6092721.77004286</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>12008528.72864757</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="1" t="n">
+        <v>1682</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>6084274.05045816</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>12012843.77443067</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="1" t="n">
+        <v>1683</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>6087436.21906448</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>12016613.25474877</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="1" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>6106617.88501739</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>12020939.91315313</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>6107591.3854061</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>12024800.36132205</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="1" t="n">
+        <v>1686</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>6112271.80596094</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>12028969.2473601</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="1" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>6102764.70337944</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>12033057.68370507</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="1" t="n">
+        <v>1688</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>6105551.07991618</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>12037245.04758778</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="1" t="n">
+        <v>1689</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>6108002.49074753</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>12041156.66517276</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="1" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>6102988.58686193</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>12044820.96391337</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="1" t="n">
+        <v>1691</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>6097338.67505068</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>12049203.05585177</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="1" t="n">
+        <v>1692</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>6091794.57061944</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>12053447.84319031</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="1" t="n">
+        <v>1693</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>6087078.84443203</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>12057316.81959518</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="1" t="n">
+        <v>1694</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>6092976.08409887</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>12061470.07053383</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="1" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>6094630.9140691</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>12065327.67595736</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>6099445.46714902</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>12069702.66103247</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="1" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>6092043.02869354</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>12073784.84333761</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="1" t="n">
+        <v>1698</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>6114224.0313665</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>12077551.48091034</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="1" t="n">
+        <v>1699</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>6102102.77117036</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>12081770.11499186</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>6099974.37413655</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>12085590.76472606</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="1" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>6109828.30606007</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>12089717.0095841</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="1" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>6121514.77218609</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>12094182.96250993</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="1" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>6118707.38231823</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>12097945.39225657</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="1" t="n">
+        <v>1704</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>6112171.0782812</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>12102020.93210373</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="1" t="n">
+        <v>1705</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>6087433.7477523</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>12106061.28945907</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="1" t="n">
+        <v>1706</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>6089004.6568225</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>12110166.38259934</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="1" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>6087556.91995729</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>12114393.06643119</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="1" t="n">
+        <v>1708</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>6073136.61279073</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>12117773.4002409</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="1" t="n">
+        <v>1709</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>6083771.90051962</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>12121928.31178951</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="1" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>6086492.78335524</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>12126085.47501759</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="1" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>6066810.40286221</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>12130400.25580882</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>6045020.0320309</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>12134430.76206654</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="1" t="n">
+        <v>1713</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>6034569.26876756</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>12138084.1120124</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="1" t="n">
+        <v>1714</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>6049569.27475382</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>12141979.51750168</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="1" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>6090043.11989435</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>12145921.36388009</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="1" t="n">
+        <v>1716</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>6126769.21979008</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>12150250.21766803</v>
       </c>
     </row>
   </sheetData>
